--- a/backend/dataset/sample.xlsx
+++ b/backend/dataset/sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="629">
   <si>
     <t>Full Name</t>
   </si>
@@ -25,1912 +25,1882 @@
     <t>Hard Skills</t>
   </si>
   <si>
+    <t>Biryukov Korneliy Semenovich</t>
+  </si>
+  <si>
+    <t>Pavlov Timofey Pavlovich</t>
+  </si>
+  <si>
+    <t>Sobolev Donat Aristarkhovich</t>
+  </si>
+  <si>
+    <t>Bobyleva Nadezhda Gelas'yevna</t>
+  </si>
+  <si>
+    <t>Andrew Schroeder</t>
+  </si>
+  <si>
+    <t>Quinn Vargas</t>
+  </si>
+  <si>
+    <t>Kovaleva Elena Melorovna</t>
+  </si>
+  <si>
+    <t>Rodionov Paramon Vladislavovich</t>
+  </si>
+  <si>
+    <t>Mishina Larisa Valer'yevna</t>
+  </si>
+  <si>
+    <t>Peyton Hudson</t>
+  </si>
+  <si>
+    <t>Lavrent'yeva Diodora Gennadievna</t>
+  </si>
+  <si>
+    <t>Blinova Ekaterina Arsen'yevna</t>
+  </si>
+  <si>
+    <t>Ray Roman</t>
+  </si>
+  <si>
+    <t>Filippova Yunona Mikhailovna</t>
+  </si>
+  <si>
+    <t>Zimina Severina Stanislavovna</t>
+  </si>
+  <si>
+    <t>Galkin Feliks Nikitevich</t>
+  </si>
+  <si>
+    <t>Panfilova Yulanta Veniaminovna</t>
+  </si>
+  <si>
+    <t>Konnor Davis</t>
+  </si>
+  <si>
+    <t>Konovalov May Makarovich</t>
+  </si>
+  <si>
+    <t>Novikova Elizaveta Avdeevna</t>
+  </si>
+  <si>
+    <t>Elisa Caldwell</t>
+  </si>
+  <si>
+    <t>Fedoseev Makar Onisimovich</t>
+  </si>
+  <si>
+    <t>Nesterova Al'berta Kupriyanovna</t>
+  </si>
+  <si>
+    <t>Naumov Apollon Adol'fovich</t>
+  </si>
+  <si>
+    <t>Vorob'yeva Estella Maksovna</t>
+  </si>
+  <si>
+    <t>Korolev Illarion Al'vianovich</t>
+  </si>
+  <si>
+    <t>Brandon Bridges</t>
+  </si>
+  <si>
+    <t>Giovanna Mendez</t>
+  </si>
+  <si>
+    <t>Komarova Eshli Timofeevna</t>
+  </si>
+  <si>
+    <t>Anisimov Rostislav Gordeevich</t>
+  </si>
+  <si>
+    <t>Romanova Nikol' Vladlenovna</t>
+  </si>
+  <si>
+    <t>Yudin Kirill Maksimovich</t>
+  </si>
+  <si>
+    <t>Kennedi Bruce</t>
+  </si>
+  <si>
+    <t>Smirnov Gennadiy Evgen'yevich</t>
+  </si>
+  <si>
+    <t>Sergeev Ostap Filippovich</t>
+  </si>
+  <si>
+    <t>Myshkin Yustin Daniilovich</t>
+  </si>
+  <si>
+    <t>Everett Patterson</t>
+  </si>
+  <si>
+    <t>Shchukin German Petrovich</t>
+  </si>
+  <si>
+    <t>Fedorov Venedikt Protas'yevich</t>
+  </si>
+  <si>
+    <t>Kazakov Sevast'yan Il'yaovich</t>
+  </si>
+  <si>
+    <t>Elisabeth Meyer</t>
+  </si>
+  <si>
+    <t>Strelkova Yulanta Rostislavovna</t>
+  </si>
+  <si>
+    <t>Konnor Robertson</t>
+  </si>
+  <si>
+    <t>Marley Mercado</t>
+  </si>
+  <si>
+    <t>Yakushev Matvey Mikhailovich</t>
+  </si>
+  <si>
+    <t>Konstantinov Rudol'f Timofeevich</t>
+  </si>
+  <si>
+    <t>Cora Perez</t>
+  </si>
+  <si>
+    <t>Semenova Zhaklin Denisovna</t>
+  </si>
+  <si>
+    <t>Biryukova Zoya Antonovna</t>
+  </si>
+  <si>
+    <t>Cassandra Singh</t>
+  </si>
+  <si>
+    <t>Marlene Brennan</t>
+  </si>
+  <si>
+    <t>Tret'yakova Mishel' Borisovna</t>
+  </si>
+  <si>
+    <t>Suvorova Aziza Naumovna</t>
+  </si>
+  <si>
+    <t>Shchukina Danuta Avdeevna</t>
+  </si>
+  <si>
+    <t>Egorova Nomi Martynovna</t>
+  </si>
+  <si>
+    <t>Lobanov Aleksandr Gennadievich</t>
+  </si>
+  <si>
+    <t>Turov Maksim Tarasovich</t>
+  </si>
+  <si>
+    <t>Avdeev Avvakuum Fedorovich</t>
+  </si>
+  <si>
+    <t>Tamia Byrd</t>
+  </si>
+  <si>
+    <t>Lytkin Evdokim Yulianovich</t>
+  </si>
+  <si>
+    <t>Fadeeva Marta Ignat'yevna</t>
+  </si>
+  <si>
+    <t>Mironov Korneliy Panteleymonovich</t>
+  </si>
+  <si>
+    <t>Maleah Vasquez</t>
+  </si>
+  <si>
+    <t>Marcelo Cowan</t>
+  </si>
+  <si>
+    <t>Jayleen Guerra</t>
+  </si>
+  <si>
+    <t>Semenova Lyudmila Yulianovna</t>
+  </si>
+  <si>
+    <t>Genevieve Edwards</t>
+  </si>
+  <si>
+    <t>Kopylov Denis Irineevich</t>
+  </si>
+  <si>
+    <t>Deven Ramirez</t>
+  </si>
+  <si>
+    <t>Timothy Mack</t>
+  </si>
+  <si>
+    <t>Charity Mccann</t>
+  </si>
+  <si>
+    <t>Evseev Ignatiy Pavlovich</t>
+  </si>
+  <si>
+    <t>Fedotova Anzhelika Tikhonovna</t>
+  </si>
+  <si>
+    <t>Dahlia Bowman</t>
+  </si>
+  <si>
+    <t>Rogova Bella Mironovna</t>
+  </si>
+  <si>
+    <t>Zhuravlev Petr Yur'yevich</t>
+  </si>
+  <si>
+    <t>Orlova Dzhuliya Ignat'yevna</t>
+  </si>
+  <si>
+    <t>Afanas'yev Al'fred Ulebovich</t>
+  </si>
+  <si>
+    <t>Isaeva Yanina Natanovna</t>
+  </si>
+  <si>
+    <t>Rogova Birgit Vyacheslavovna</t>
+  </si>
+  <si>
+    <t>Isiah Stephens</t>
+  </si>
+  <si>
+    <t>Novikov Il'ya Tarasovich</t>
+  </si>
+  <si>
+    <t>Iris Murillo</t>
+  </si>
+  <si>
+    <t>Julissa Webb</t>
+  </si>
+  <si>
+    <t>Larionova Zlata Tikhonovna</t>
+  </si>
+  <si>
+    <t>Samara Mills</t>
+  </si>
+  <si>
+    <t>Biryukov Al'bert Gelas'yevich</t>
+  </si>
+  <si>
+    <t>Damian Reese</t>
+  </si>
+  <si>
+    <t>Blokhin Ignatiy Melsovich</t>
+  </si>
+  <si>
+    <t>Potapova Meliana Pavlovna</t>
+  </si>
+  <si>
+    <t>Mara Delacruz</t>
+  </si>
+  <si>
+    <t>Grishin Arsen Andreevich</t>
+  </si>
+  <si>
+    <t>Heidy Buchanan</t>
+  </si>
+  <si>
+    <t>Subbotin Aleksey Tikhonovich</t>
+  </si>
+  <si>
+    <t>August Howard</t>
+  </si>
+  <si>
+    <t>Arkhipova Eva Mikhaylovna</t>
+  </si>
+  <si>
+    <t>Gorshkov Igor' Aristarkhovich</t>
+  </si>
+  <si>
+    <t>Martynova Asida Khristoforovna</t>
+  </si>
+  <si>
+    <t>Morozova Bella Rudol'fovna</t>
+  </si>
+  <si>
+    <t>Braylon Garner</t>
+  </si>
+  <si>
+    <t>Kulakova Karmelitta Rudol'fovna</t>
+  </si>
+  <si>
+    <t>Nikitin Zinoviy Alekseevich</t>
+  </si>
+  <si>
+    <t>Bogdanova Raya Leonidovna</t>
+  </si>
+  <si>
+    <t>Bridget Mcgrath</t>
+  </si>
+  <si>
+    <t>Belozerov Gayane Timurovich</t>
+  </si>
+  <si>
+    <t>Kuz'mina Marfa Agafonovna</t>
+  </si>
+  <si>
+    <t>Lilly Hanson</t>
+  </si>
+  <si>
+    <t>Smirnova Dzhul'yetta Borisovna</t>
+  </si>
+  <si>
+    <t>Fedoseeva Fanni Alekseevna</t>
+  </si>
+  <si>
+    <t>Kolesnikov Luk'yan Georgievich</t>
+  </si>
+  <si>
+    <t>Micah Sloan</t>
+  </si>
+  <si>
+    <t>Micah Morgan</t>
+  </si>
+  <si>
+    <t>Zueva Ruslana Aristarkhovna</t>
+  </si>
+  <si>
+    <t>Ermakova Sil'va Filatovna</t>
+  </si>
+  <si>
+    <t>Gushchin Anton Platonovich</t>
+  </si>
+  <si>
+    <t>Shiryaev Mikhail Artemovich</t>
+  </si>
+  <si>
+    <t>Jett Chandler</t>
+  </si>
+  <si>
+    <t>Samir Riley</t>
+  </si>
+  <si>
+    <t>Belyakova Nikol' Kimovna</t>
+  </si>
+  <si>
+    <t>Sergeeva Avigeya Oskarovna</t>
+  </si>
+  <si>
+    <t>Kharitonova Neonila Maksovna</t>
+  </si>
+  <si>
+    <t>Dmitrieva Marisha Sozonovna</t>
+  </si>
+  <si>
+    <t>Semenov Lavr Agafonovich</t>
+  </si>
+  <si>
+    <t>Alisson Warner</t>
+  </si>
+  <si>
+    <t>Conner Briggs</t>
+  </si>
+  <si>
+    <t>Ivanova Gera Vladislavovna</t>
+  </si>
+  <si>
+    <t>Nikonov Solomon Timofeevich</t>
+  </si>
+  <si>
+    <t>Douglas Sanchez</t>
+  </si>
+  <si>
+    <t>Ellie Berry</t>
+  </si>
+  <si>
+    <t>Elsa Singleton</t>
+  </si>
+  <si>
+    <t>Bobylev Klement Pavlovich</t>
+  </si>
+  <si>
+    <t>Kristen Stein</t>
+  </si>
+  <si>
+    <t>Efimov Lavr Germannovich</t>
+  </si>
+  <si>
+    <t>Ryland Chaney</t>
+  </si>
+  <si>
+    <t>Chloe Cabrera</t>
+  </si>
+  <si>
+    <t>Jamal Rasmussen</t>
+  </si>
+  <si>
+    <t>Doronin Leontiy Panteleymonovich</t>
+  </si>
+  <si>
+    <t>Maddison Velez</t>
+  </si>
+  <si>
+    <t>Pakhomova Dionisiya Vasil'yevna</t>
+  </si>
+  <si>
+    <t>Savel'yev Adol'f Al'bertovich</t>
+  </si>
+  <si>
+    <t>Zuev Gayane Antoninovich</t>
+  </si>
+  <si>
+    <t>Zhuravlev May Nikitevich</t>
+  </si>
+  <si>
+    <t>Silina Eleonora Avksent'yevna</t>
+  </si>
+  <si>
+    <t>Jaycee Gillespie</t>
+  </si>
+  <si>
+    <t>Lukin Klement Romanovich</t>
+  </si>
+  <si>
+    <t>Cecilia Wade</t>
+  </si>
+  <si>
+    <t>Kuznetsov Kondratiy Kupriyanovich</t>
+  </si>
+  <si>
+    <t>Lapin Fedor Vladislavovich</t>
+  </si>
+  <si>
+    <t>Gerasimov Askol'd Timurovich</t>
+  </si>
+  <si>
+    <t>Trofimov Vitaliy Mitrofanovich</t>
+  </si>
+  <si>
+    <t>Macie Mcintyre</t>
+  </si>
+  <si>
+    <t>Belozerova Kelen Mironovna</t>
+  </si>
+  <si>
+    <t>Scarlett Lowe</t>
+  </si>
+  <si>
+    <t>Seliverstov Yulian Anatol'yevich</t>
+  </si>
+  <si>
+    <t>Osipov Vladislav Stanislavovich</t>
+  </si>
+  <si>
+    <t>Kuznetsov Robert Gordeevich</t>
+  </si>
+  <si>
+    <t>Petukhova Tomila Daniilovna</t>
+  </si>
+  <si>
+    <t>Myshkina Milisa Vladislavovna</t>
+  </si>
+  <si>
+    <t>Kabanova Georgina Semenovna</t>
+  </si>
+  <si>
+    <t>Gordeev Flor Dem'yanovich</t>
+  </si>
+  <si>
+    <t>Polyakova Al'bina Melsovna</t>
+  </si>
+  <si>
+    <t>Jayden Zamora</t>
+  </si>
+  <si>
+    <t>Albert Faulkner</t>
+  </si>
+  <si>
+    <t>Phillip Leon</t>
+  </si>
+  <si>
+    <t>Kononov Paramon Mikhailovich</t>
+  </si>
+  <si>
+    <t>Griffin Acevedo</t>
+  </si>
+  <si>
+    <t>Janiyah Mosley</t>
+  </si>
+  <si>
+    <t>Fokin Artem Germannovich</t>
+  </si>
+  <si>
+    <t>Walker Conway</t>
+  </si>
+  <si>
+    <t>Shchukina Alla Gordeevna</t>
+  </si>
+  <si>
+    <t>Anaya Gaines</t>
+  </si>
+  <si>
+    <t>Uvarova Aza Kimovna</t>
+  </si>
+  <si>
+    <t>Alina Carr</t>
+  </si>
+  <si>
+    <t>Bragina Disha Vasil'yevna</t>
+  </si>
+  <si>
+    <t>Ershov Aleksandr El'darovich</t>
+  </si>
+  <si>
+    <t>Addisyn Blair</t>
+  </si>
+  <si>
+    <t>Rayne Russell</t>
+  </si>
+  <si>
+    <t>Volkova Lyubava Filippovna</t>
+  </si>
+  <si>
+    <t>Solov'yev Semen Valentinovich</t>
+  </si>
+  <si>
+    <t>Kaley Bender</t>
+  </si>
+  <si>
+    <t>Alejandra Burns</t>
+  </si>
+  <si>
+    <t>Zykova Ada Aleksandrovna</t>
+  </si>
+  <si>
+    <t>Jovanny Melton</t>
+  </si>
+  <si>
+    <t>Fomicheva Tereza Kimovna</t>
+  </si>
+  <si>
+    <t>Kabanov Matvey Al'vianovich</t>
+  </si>
+  <si>
+    <t>Matveev Grigoriy Luk'yanovich</t>
+  </si>
+  <si>
+    <t>Javion Cameron</t>
+  </si>
+  <si>
+    <t>Quinton Ali</t>
+  </si>
+  <si>
+    <t>Orlando Serrano</t>
+  </si>
+  <si>
+    <t>Osipov Efim Sergeevich</t>
+  </si>
+  <si>
+    <t>Vorontsov Aristarkh Leonidovich</t>
+  </si>
+  <si>
+    <t>Matias Ewing</t>
+  </si>
+  <si>
+    <t>Gordeeva Yuna Gennadievna</t>
+  </si>
+  <si>
+    <t>Zhukova Bronislava Al'bertovna</t>
+  </si>
+  <si>
+    <t>Popova Gabriella Germanovna</t>
+  </si>
+  <si>
+    <t>Dorofeeva Mila Luk'yevna</t>
+  </si>
+  <si>
+    <t>Burov Leonid Maksimovich</t>
+  </si>
+  <si>
+    <t>Tyler Lowe</t>
+  </si>
+  <si>
+    <t>Fedoseev Karl Yakovlevich</t>
+  </si>
+  <si>
+    <t>Derick Klein</t>
+  </si>
+  <si>
+    <t>Bykova Yana Romanovna</t>
+  </si>
+  <si>
+    <t>Likhachev Vitol'd Fedoseevich</t>
+  </si>
+  <si>
+    <t>Il'ina Milisa Iosifovna</t>
+  </si>
+  <si>
+    <t>Alisson Moody</t>
+  </si>
+  <si>
+    <t>Osipova Gelana Vasil'yevna</t>
+  </si>
+  <si>
+    <t>Kostin Vladislav Matveevich</t>
+  </si>
+  <si>
+    <t>Vasil'yeva Polianna Davidovna</t>
+  </si>
+  <si>
+    <t>Mariyah Colon</t>
+  </si>
+  <si>
+    <t>Petrov Prokhor Protas'yevich</t>
+  </si>
+  <si>
+    <t>Malik Walton</t>
+  </si>
+  <si>
+    <t>Ivankov El'dar Leonidovich</t>
+  </si>
+  <si>
+    <t>Frolov Ippolit Ruslanovich</t>
+  </si>
+  <si>
+    <t>Konstantinova Lili Lavrent'yevna</t>
+  </si>
+  <si>
+    <t>Hector Wells</t>
+  </si>
+  <si>
+    <t>Galkin Vadim Fedoseevich</t>
+  </si>
+  <si>
+    <t>Jack Hayes</t>
+  </si>
+  <si>
+    <t>Avery Daniels</t>
+  </si>
+  <si>
+    <t>Ricardo Yates</t>
+  </si>
+  <si>
+    <t>Soboleva Ellina Daniilovna</t>
+  </si>
+  <si>
+    <t>Bespalov Gordey Proklovich</t>
+  </si>
+  <si>
+    <t>Karissa Howell</t>
+  </si>
+  <si>
+    <t>Bol'shakov Lazar' Yaroslavovich</t>
+  </si>
+  <si>
+    <t>Zhdanov Efim Georgievich</t>
+  </si>
+  <si>
+    <t>Ovchinnikov Benedikt Valer'yevich</t>
+  </si>
+  <si>
+    <t>Sitnikov Terentiy Yaroslavovich</t>
+  </si>
+  <si>
+    <t>Kiseleva Sil'va Gelas'yevna</t>
+  </si>
+  <si>
+    <t>Xander Prince</t>
+  </si>
+  <si>
+    <t>Ismael Ochoa</t>
+  </si>
+  <si>
+    <t>Danika Cardenas</t>
+  </si>
+  <si>
+    <t>Brycen Weber</t>
+  </si>
+  <si>
+    <t>Golubeva Muza Mikhaylovna</t>
+  </si>
+  <si>
+    <t>Sharov Artem Svyatoslavovich</t>
+  </si>
+  <si>
+    <t>Isla Ayala</t>
+  </si>
+  <si>
+    <t>Kyson Torres</t>
+  </si>
+  <si>
+    <t>Makarova Izabella Maksimovna</t>
+  </si>
+  <si>
+    <t>Romanova Yanina Rudol'fovna</t>
+  </si>
+  <si>
+    <t>Zhdanova Alesya Mikhaylovna</t>
+  </si>
+  <si>
+    <t>Krasil'nikova Kseniya Grigor'yevna</t>
+  </si>
+  <si>
+    <t>Eduardo Orr</t>
+  </si>
+  <si>
+    <t>Ryder Meadows</t>
+  </si>
+  <si>
+    <t>Veselov Illarion Avksent'yevich</t>
+  </si>
+  <si>
+    <t>Artem'yev Adol'f Timofeevich</t>
+  </si>
+  <si>
+    <t>Blinov Ernest Georg'yevich</t>
+  </si>
+  <si>
+    <t>Grace Hayden</t>
+  </si>
+  <si>
+    <t>Noel Lopez</t>
+  </si>
+  <si>
+    <t>Ruth Glass</t>
+  </si>
+  <si>
+    <t>Grishina Kamilla Onisimovna</t>
+  </si>
+  <si>
+    <t>Belov Frol Yulianovich</t>
+  </si>
+  <si>
+    <t>Kiselev Al'bert Yakovlevich</t>
+  </si>
+  <si>
+    <t>Jaime Mclean</t>
+  </si>
+  <si>
+    <t>Kalinina Bozhena Ulebovna</t>
+  </si>
+  <si>
+    <t>Harmony Holder</t>
+  </si>
+  <si>
+    <t>Sobolev Azariy Fedoseevich</t>
+  </si>
+  <si>
+    <t>Pavlova Sandra Sozonovna</t>
+  </si>
+  <si>
+    <t>Elisa Lara</t>
+  </si>
+  <si>
+    <t>Ernest Montes</t>
+  </si>
+  <si>
+    <t>Geovanni Rojas</t>
+  </si>
+  <si>
+    <t>Potapov Arkhip Yulianovich</t>
+  </si>
+  <si>
+    <t>Lobanov Nison Platonovich</t>
+  </si>
+  <si>
+    <t>Ignatova Tat'yana Veniaminovna</t>
+  </si>
+  <si>
+    <t>Fokina Nora Luk'yevna</t>
+  </si>
+  <si>
+    <t>Markov Kazimir Tarasovich</t>
+  </si>
+  <si>
+    <t>Ulises Colon</t>
+  </si>
+  <si>
+    <t>Caden Glass</t>
+  </si>
+  <si>
+    <t>Shubina Gelena Davidovna</t>
+  </si>
+  <si>
+    <t>Morgan Carney</t>
+  </si>
+  <si>
+    <t>Deegan Walker</t>
+  </si>
+  <si>
+    <t>Sarahi Pennington</t>
+  </si>
+  <si>
+    <t>Dominique Cox</t>
+  </si>
+  <si>
+    <t>Logan Hayden</t>
+  </si>
+  <si>
+    <t>Antonova Darina Fedoseevna</t>
+  </si>
+  <si>
+    <t>Abramova Inessa Yulianovna</t>
+  </si>
+  <si>
+    <t>Potapova Adelina Yakovovna</t>
+  </si>
+  <si>
+    <t>Kara Sosa</t>
+  </si>
+  <si>
+    <t>Maurice Wilkerson</t>
+  </si>
+  <si>
+    <t>Frankie Atkins</t>
+  </si>
+  <si>
     <t>Samsonova Venera Agafonovna</t>
   </si>
   <si>
-    <t>Vorontsov Aristarkh Leonidovich</t>
-  </si>
-  <si>
-    <t>Morozova Bella Rudol'fovna</t>
-  </si>
-  <si>
-    <t>Jayden Zamora</t>
-  </si>
-  <si>
-    <t>Ulises Colon</t>
-  </si>
-  <si>
-    <t>Dominique Cox</t>
-  </si>
-  <si>
-    <t>Fedorov Venedikt Protas'yevich</t>
-  </si>
-  <si>
-    <t>Likhachev Vitol'd Fedoseevich</t>
-  </si>
-  <si>
-    <t>Geovanni Rojas</t>
-  </si>
-  <si>
-    <t>Naumov Apollon Adol'fovich</t>
-  </si>
-  <si>
-    <t>Shubina Gelena Davidovna</t>
-  </si>
-  <si>
-    <t>Konnor Davis</t>
-  </si>
-  <si>
-    <t>Fedotova Anzhelika Tikhonovna</t>
-  </si>
-  <si>
-    <t>Suvorova Aziza Naumovna</t>
-  </si>
-  <si>
-    <t>Petrov Prokhor Protas'yevich</t>
-  </si>
-  <si>
-    <t>Alisson Warner</t>
-  </si>
-  <si>
-    <t>Phillip Leon</t>
-  </si>
-  <si>
-    <t>Vorob'yeva Estella Maksovna</t>
-  </si>
-  <si>
-    <t>Grishin Arsen Andreevich</t>
-  </si>
-  <si>
-    <t>Bobylev Klement Pavlovich</t>
-  </si>
-  <si>
-    <t>Belozerov Gayane Timurovich</t>
-  </si>
-  <si>
-    <t>Everett Patterson</t>
-  </si>
-  <si>
-    <t>Jett Chandler</t>
-  </si>
-  <si>
-    <t>Sitnikov Terentiy Yaroslavovich</t>
-  </si>
-  <si>
-    <t>Macie Mcintyre</t>
-  </si>
-  <si>
-    <t>Grace Hayden</t>
-  </si>
-  <si>
-    <t>Kristen Stein</t>
-  </si>
-  <si>
-    <t>Romanova Yanina Rudol'fovna</t>
-  </si>
-  <si>
-    <t>Veselov Illarion Avksent'yevich</t>
-  </si>
-  <si>
-    <t>Brycen Weber</t>
-  </si>
-  <si>
-    <t>Blinov Ernest Georg'yevich</t>
-  </si>
-  <si>
-    <t>Griffin Acevedo</t>
-  </si>
-  <si>
-    <t>Gorshkov Igor' Aristarkhovich</t>
-  </si>
-  <si>
     <t>Khokhlova Faya Vladlenovna</t>
   </si>
   <si>
-    <t>Hector Wells</t>
-  </si>
-  <si>
-    <t>Doronin Leontiy Panteleymonovich</t>
-  </si>
-  <si>
-    <t>Rogova Birgit Vyacheslavovna</t>
-  </si>
-  <si>
-    <t>Bol'shakov Lazar' Yaroslavovich</t>
-  </si>
-  <si>
-    <t>Brandon Bridges</t>
-  </si>
-  <si>
-    <t>Silina Eleonora Avksent'yevna</t>
-  </si>
-  <si>
-    <t>Blokhin Ignatiy Melsovich</t>
-  </si>
-  <si>
-    <t>Bragina Disha Vasil'yevna</t>
-  </si>
-  <si>
-    <t>Harmony Holder</t>
-  </si>
-  <si>
-    <t>Evseev Ignatiy Pavlovich</t>
-  </si>
-  <si>
-    <t>Popova Gabriella Germanovna</t>
+    <t>Kosheleva Debora Eduardovna</t>
+  </si>
+  <si>
+    <t>Davin Hebert</t>
   </si>
   <si>
     <t>Bogdanova Yanina Leonidovna</t>
   </si>
   <si>
-    <t>Mishina Larisa Valer'yevna</t>
-  </si>
-  <si>
-    <t>Blinova Ekaterina Arsen'yevna</t>
-  </si>
-  <si>
-    <t>Maleah Vasquez</t>
-  </si>
-  <si>
-    <t>Makarova Izabella Maksimovna</t>
-  </si>
-  <si>
-    <t>Ellie Berry</t>
-  </si>
-  <si>
-    <t>Savel'yev Adol'f Al'bertovich</t>
-  </si>
-  <si>
-    <t>Lavrent'yeva Diodora Gennadievna</t>
-  </si>
-  <si>
-    <t>Ruth Glass</t>
+    <t>Blinova Patrisiya Kirillovna</t>
+  </si>
+  <si>
+    <t>Panfilov Ernest Artemovich</t>
+  </si>
+  <si>
+    <t>Kolobova Genrietta Andreevna</t>
+  </si>
+  <si>
+    <t>Hannah Anthony</t>
   </si>
   <si>
     <t>Tobias Gomez</t>
   </si>
   <si>
-    <t>Matveev Grigoriy Luk'yanovich</t>
-  </si>
-  <si>
-    <t>Marley Mercado</t>
-  </si>
-  <si>
-    <t>Gushchin Anton Platonovich</t>
-  </si>
-  <si>
-    <t>Cecilia Wade</t>
-  </si>
-  <si>
-    <t>Caden Glass</t>
-  </si>
-  <si>
-    <t>Jayleen Guerra</t>
-  </si>
-  <si>
-    <t>Kovaleva Elena Melorovna</t>
-  </si>
-  <si>
-    <t>Andrew Schroeder</t>
-  </si>
-  <si>
-    <t>Gordeev Flor Dem'yanovich</t>
-  </si>
-  <si>
-    <t>Isaeva Yanina Natanovna</t>
-  </si>
-  <si>
-    <t>Mara Delacruz</t>
-  </si>
-  <si>
-    <t>Alisson Moody</t>
-  </si>
-  <si>
-    <t>Abramova Inessa Yulianovna</t>
-  </si>
-  <si>
-    <t>Afanas'yev Al'fred Ulebovich</t>
-  </si>
-  <si>
-    <t>Novikov Il'ya Tarasovich</t>
-  </si>
-  <si>
-    <t>Orlova Dzhuliya Ignat'yevna</t>
-  </si>
-  <si>
-    <t>Marcelo Cowan</t>
-  </si>
-  <si>
-    <t>Kostin Vladislav Matveevich</t>
-  </si>
-  <si>
-    <t>Frankie Atkins</t>
-  </si>
-  <si>
-    <t>Kyson Torres</t>
-  </si>
-  <si>
-    <t>Shchukina Danuta Avdeevna</t>
-  </si>
-  <si>
-    <t>Il'ina Milisa Iosifovna</t>
-  </si>
-  <si>
-    <t>Kolobova Genrietta Andreevna</t>
-  </si>
-  <si>
-    <t>Antonova Darina Fedoseevna</t>
-  </si>
-  <si>
-    <t>Kiseleva Sil'va Gelas'yevna</t>
-  </si>
-  <si>
-    <t>Sarahi Pennington</t>
-  </si>
-  <si>
-    <t>Myshkin Yustin Daniilovich</t>
-  </si>
-  <si>
-    <t>Blinova Patrisiya Kirillovna</t>
-  </si>
-  <si>
-    <t>Logan Hayden</t>
-  </si>
-  <si>
-    <t>Bykova Yana Romanovna</t>
-  </si>
-  <si>
-    <t>Kabanova Georgina Semenovna</t>
-  </si>
-  <si>
-    <t>Lapin Fedor Vladislavovich</t>
-  </si>
-  <si>
-    <t>Alejandra Burns</t>
-  </si>
-  <si>
-    <t>Kosheleva Debora Eduardovna</t>
-  </si>
-  <si>
-    <t>Heidy Buchanan</t>
-  </si>
-  <si>
-    <t>Rogova Bella Mironovna</t>
-  </si>
-  <si>
-    <t>Belozerova Kelen Mironovna</t>
-  </si>
-  <si>
-    <t>Avdeev Avvakuum Fedorovich</t>
-  </si>
-  <si>
-    <t>Isiah Stephens</t>
-  </si>
-  <si>
-    <t>Zuev Gayane Antoninovich</t>
-  </si>
-  <si>
-    <t>Galkin Vadim Fedoseevich</t>
-  </si>
-  <si>
-    <t>Nesterova Al'berta Kupriyanovna</t>
-  </si>
-  <si>
-    <t>Potapov Arkhip Yulianovich</t>
-  </si>
-  <si>
-    <t>Damian Reese</t>
-  </si>
-  <si>
-    <t>Ernest Montes</t>
-  </si>
-  <si>
-    <t>Ryder Meadows</t>
-  </si>
-  <si>
-    <t>Ivanova Gera Vladislavovna</t>
-  </si>
-  <si>
-    <t>Gerasimov Askol'd Timurovich</t>
-  </si>
-  <si>
-    <t>Egorova Nomi Martynovna</t>
-  </si>
-  <si>
-    <t>Julissa Webb</t>
-  </si>
-  <si>
-    <t>Zhuravlev May Nikitevich</t>
-  </si>
-  <si>
-    <t>Volkova Lyubava Filippovna</t>
-  </si>
-  <si>
-    <t>Rayne Russell</t>
-  </si>
-  <si>
-    <t>Kulakova Karmelitta Rudol'fovna</t>
-  </si>
-  <si>
-    <t>Malik Walton</t>
-  </si>
-  <si>
-    <t>Kolesnikov Luk'yan Georgievich</t>
-  </si>
-  <si>
-    <t>Grishina Kamilla Onisimovna</t>
-  </si>
-  <si>
-    <t>Kalinina Bozhena Ulebovna</t>
-  </si>
-  <si>
-    <t>Fedoseev Karl Yakovlevich</t>
-  </si>
-  <si>
-    <t>Osipov Efim Sergeevich</t>
-  </si>
-  <si>
-    <t>Biryukov Al'bert Gelas'yevich</t>
-  </si>
-  <si>
-    <t>Osipova Gelana Vasil'yevna</t>
-  </si>
-  <si>
-    <t>Kara Sosa</t>
-  </si>
-  <si>
-    <t>Pavlova Sandra Sozonovna</t>
-  </si>
-  <si>
-    <t>Charity Mccann</t>
-  </si>
-  <si>
-    <t>Belov Frol Yulianovich</t>
-  </si>
-  <si>
-    <t>Larionova Zlata Tikhonovna</t>
-  </si>
-  <si>
-    <t>Quinn Vargas</t>
-  </si>
-  <si>
-    <t>Panfilova Yulanta Veniaminovna</t>
-  </si>
-  <si>
-    <t>Sergeev Ostap Filippovich</t>
-  </si>
-  <si>
-    <t>Lytkin Evdokim Yulianovich</t>
-  </si>
-  <si>
-    <t>Micah Morgan</t>
-  </si>
-  <si>
-    <t>Konstantinov Rudol'f Timofeevich</t>
-  </si>
-  <si>
-    <t>Jovanny Melton</t>
-  </si>
-  <si>
-    <t>Walker Conway</t>
-  </si>
-  <si>
-    <t>August Howard</t>
-  </si>
-  <si>
-    <t>Kabanov Matvey Al'vianovich</t>
-  </si>
-  <si>
-    <t>Osipov Vladislav Stanislavovich</t>
-  </si>
-  <si>
-    <t>Artem'yev Adol'f Timofeevich</t>
-  </si>
-  <si>
-    <t>Ignatova Tat'yana Veniaminovna</t>
-  </si>
-  <si>
-    <t>Alina Carr</t>
-  </si>
-  <si>
-    <t>Peyton Hudson</t>
-  </si>
-  <si>
-    <t>Ray Roman</t>
-  </si>
-  <si>
-    <t>Fedoseeva Fanni Alekseevna</t>
-  </si>
-  <si>
-    <t>Markov Kazimir Tarasovich</t>
-  </si>
-  <si>
-    <t>Tamia Byrd</t>
-  </si>
-  <si>
-    <t>Potapova Meliana Pavlovna</t>
-  </si>
-  <si>
-    <t>Sergeeva Avigeya Oskarovna</t>
-  </si>
-  <si>
-    <t>Shchukina Alla Gordeevna</t>
-  </si>
-  <si>
-    <t>Soboleva Ellina Daniilovna</t>
-  </si>
-  <si>
-    <t>Fadeeva Marta Ignat'yevna</t>
-  </si>
-  <si>
-    <t>Lobanov Aleksandr Gennadievich</t>
-  </si>
-  <si>
-    <t>Sharov Artem Svyatoslavovich</t>
-  </si>
-  <si>
-    <t>Fomicheva Tereza Kimovna</t>
-  </si>
-  <si>
-    <t>Ismael Ochoa</t>
-  </si>
-  <si>
-    <t>Samir Riley</t>
-  </si>
-  <si>
-    <t>Nikitin Zinoviy Alekseevich</t>
-  </si>
-  <si>
-    <t>Krasil'nikova Kseniya Grigor'yevna</t>
-  </si>
-  <si>
-    <t>Matias Ewing</t>
-  </si>
-  <si>
-    <t>Lobanov Nison Platonovich</t>
-  </si>
-  <si>
-    <t>Noel Lopez</t>
-  </si>
-  <si>
-    <t>Ershov Aleksandr El'darovich</t>
-  </si>
-  <si>
-    <t>Derick Klein</t>
-  </si>
-  <si>
-    <t>Isla Ayala</t>
-  </si>
-  <si>
-    <t>Kiselev Al'bert Yakovlevich</t>
-  </si>
-  <si>
-    <t>Sobolev Azariy Fedoseevich</t>
-  </si>
-  <si>
-    <t>Kazakov Sevast'yan Il'yaovich</t>
-  </si>
-  <si>
-    <t>Kharitonova Neonila Maksovna</t>
-  </si>
-  <si>
-    <t>Anisimov Rostislav Gordeevich</t>
-  </si>
-  <si>
-    <t>Dmitrieva Marisha Sozonovna</t>
-  </si>
-  <si>
-    <t>Galkin Feliks Nikitevich</t>
-  </si>
-  <si>
-    <t>Jack Hayes</t>
-  </si>
-  <si>
-    <t>Subbotin Aleksey Tikhonovich</t>
-  </si>
-  <si>
-    <t>Timothy Mack</t>
-  </si>
-  <si>
-    <t>Anaya Gaines</t>
-  </si>
-  <si>
-    <t>Kuz'mina Marfa Agafonovna</t>
-  </si>
-  <si>
-    <t>Petukhova Tomila Daniilovna</t>
-  </si>
-  <si>
-    <t>Konnor Robertson</t>
-  </si>
-  <si>
-    <t>Xander Prince</t>
-  </si>
-  <si>
-    <t>Filippova Yunona Mikhailovna</t>
-  </si>
-  <si>
-    <t>Fedoseev Makar Onisimovich</t>
-  </si>
-  <si>
-    <t>Mironov Korneliy Panteleymonovich</t>
-  </si>
-  <si>
-    <t>Karissa Howell</t>
-  </si>
-  <si>
-    <t>Ovchinnikov Benedikt Valer'yevich</t>
-  </si>
-  <si>
-    <t>Semenova Lyudmila Yulianovna</t>
-  </si>
-  <si>
-    <t>Arkhipova Eva Mikhaylovna</t>
-  </si>
-  <si>
-    <t>Braylon Garner</t>
-  </si>
-  <si>
-    <t>Avery Daniels</t>
-  </si>
-  <si>
-    <t>Turov Maksim Tarasovich</t>
-  </si>
-  <si>
-    <t>Potapova Adelina Yakovovna</t>
-  </si>
-  <si>
-    <t>Pavlov Timofey Pavlovich</t>
-  </si>
-  <si>
-    <t>Kuznetsov Kondratiy Kupriyanovich</t>
-  </si>
-  <si>
-    <t>Konstantinova Lili Lavrent'yevna</t>
-  </si>
-  <si>
-    <t>Smirnov Gennadiy Evgen'yevich</t>
-  </si>
-  <si>
-    <t>Scarlett Lowe</t>
-  </si>
-  <si>
-    <t>Trofimov Vitaliy Mitrofanovich</t>
-  </si>
-  <si>
-    <t>Myshkina Milisa Vladislavovna</t>
-  </si>
-  <si>
-    <t>Addisyn Blair</t>
-  </si>
-  <si>
-    <t>Douglas Sanchez</t>
-  </si>
-  <si>
-    <t>Romanova Nikol' Vladlenovna</t>
-  </si>
-  <si>
-    <t>Seliverstov Yulian Anatol'yevich</t>
-  </si>
-  <si>
-    <t>Chloe Cabrera</t>
-  </si>
-  <si>
-    <t>Smirnova Dzhul'yetta Borisovna</t>
-  </si>
-  <si>
-    <t>Bobyleva Nadezhda Gelas'yevna</t>
-  </si>
-  <si>
-    <t>Ivankov El'dar Leonidovich</t>
-  </si>
-  <si>
-    <t>Pakhomova Dionisiya Vasil'yevna</t>
-  </si>
-  <si>
-    <t>Frolov Ippolit Ruslanovich</t>
-  </si>
-  <si>
-    <t>Bogdanova Raya Leonidovna</t>
-  </si>
-  <si>
-    <t>Vasil'yeva Polianna Davidovna</t>
-  </si>
-  <si>
-    <t>Kennedi Bruce</t>
-  </si>
-  <si>
-    <t>Davin Hebert</t>
-  </si>
-  <si>
-    <t>Polyakova Al'bina Melsovna</t>
-  </si>
-  <si>
-    <t>Albert Faulkner</t>
-  </si>
-  <si>
-    <t>Janiyah Mosley</t>
-  </si>
-  <si>
-    <t>Genevieve Edwards</t>
-  </si>
-  <si>
-    <t>Micah Sloan</t>
-  </si>
-  <si>
-    <t>Bespalov Gordey Proklovich</t>
-  </si>
-  <si>
-    <t>Solov'yev Semen Valentinovich</t>
-  </si>
-  <si>
-    <t>Lukin Klement Romanovich</t>
-  </si>
-  <si>
-    <t>Orlando Serrano</t>
-  </si>
-  <si>
-    <t>Sobolev Donat Aristarkhovich</t>
-  </si>
-  <si>
-    <t>Bridget Mcgrath</t>
-  </si>
-  <si>
-    <t>Deven Ramirez</t>
-  </si>
-  <si>
-    <t>Deegan Walker</t>
-  </si>
-  <si>
-    <t>Novikova Elizaveta Avdeevna</t>
-  </si>
-  <si>
-    <t>Elisabeth Meyer</t>
-  </si>
-  <si>
-    <t>Maurice Wilkerson</t>
-  </si>
-  <si>
-    <t>Mariyah Colon</t>
-  </si>
-  <si>
-    <t>Semenova Zhaklin Denisovna</t>
-  </si>
-  <si>
-    <t>Gordeeva Yuna Gennadievna</t>
-  </si>
-  <si>
-    <t>Maddison Velez</t>
-  </si>
-  <si>
-    <t>Lilly Hanson</t>
-  </si>
-  <si>
-    <t>Yudin Kirill Maksimovich</t>
-  </si>
-  <si>
-    <t>Elisa Lara</t>
-  </si>
-  <si>
-    <t>Eduardo Orr</t>
-  </si>
-  <si>
-    <t>Zueva Ruslana Aristarkhovna</t>
-  </si>
-  <si>
-    <t>Nikonov Solomon Timofeevich</t>
-  </si>
-  <si>
     <t>Darius Ashley</t>
   </si>
   <si>
-    <t>Shiryaev Mikhail Artemovich</t>
-  </si>
-  <si>
-    <t>Elsa Singleton</t>
-  </si>
-  <si>
-    <t>Kuznetsov Robert Gordeevich</t>
-  </si>
-  <si>
-    <t>Semenov Lavr Agafonovich</t>
-  </si>
-  <si>
-    <t>Uvarova Aza Kimovna</t>
-  </si>
-  <si>
-    <t>Ermakova Sil'va Filatovna</t>
-  </si>
-  <si>
-    <t>Korolev Illarion Al'vianovich</t>
-  </si>
-  <si>
-    <t>Kaley Bender</t>
-  </si>
-  <si>
-    <t>Javion Cameron</t>
-  </si>
-  <si>
-    <t>Panfilov Ernest Artemovich</t>
-  </si>
-  <si>
-    <t>Yakushev Matvey Mikhailovich</t>
-  </si>
-  <si>
-    <t>Strelkova Yulanta Rostislavovna</t>
-  </si>
-  <si>
-    <t>Tret'yakova Mishel' Borisovna</t>
-  </si>
-  <si>
-    <t>Marlene Brennan</t>
-  </si>
-  <si>
-    <t>Konovalov May Makarovich</t>
-  </si>
-  <si>
-    <t>Zhdanov Efim Georgievich</t>
-  </si>
-  <si>
-    <t>Jaycee Gillespie</t>
-  </si>
-  <si>
-    <t>Morgan Carney</t>
-  </si>
-  <si>
-    <t>Komarova Eshli Timofeevna</t>
-  </si>
-  <si>
-    <t>Dahlia Bowman</t>
-  </si>
-  <si>
-    <t>Belyakova Nikol' Kimovna</t>
-  </si>
-  <si>
-    <t>Biryukov Korneliy Semenovich</t>
-  </si>
-  <si>
-    <t>Ryland Chaney</t>
-  </si>
-  <si>
-    <t>Cora Perez</t>
-  </si>
-  <si>
-    <t>Golubeva Muza Mikhaylovna</t>
-  </si>
-  <si>
-    <t>Dorofeeva Mila Luk'yevna</t>
-  </si>
-  <si>
-    <t>Jamal Rasmussen</t>
-  </si>
-  <si>
-    <t>Kopylov Denis Irineevich</t>
-  </si>
-  <si>
-    <t>Quinton Ali</t>
-  </si>
-  <si>
-    <t>Kononov Paramon Mikhailovich</t>
-  </si>
-  <si>
-    <t>Hannah Anthony</t>
-  </si>
-  <si>
-    <t>Zhdanova Alesya Mikhaylovna</t>
-  </si>
-  <si>
-    <t>Zimina Severina Stanislavovna</t>
-  </si>
-  <si>
-    <t>Fokin Artem Germannovich</t>
-  </si>
-  <si>
-    <t>Ricardo Yates</t>
-  </si>
-  <si>
-    <t>Shchukin German Petrovich</t>
-  </si>
-  <si>
-    <t>Fokina Nora Luk'yevna</t>
-  </si>
-  <si>
-    <t>Zhuravlev Petr Yur'yevich</t>
-  </si>
-  <si>
-    <t>Samara Mills</t>
-  </si>
-  <si>
-    <t>Jaime Mclean</t>
-  </si>
-  <si>
-    <t>Iris Murillo</t>
-  </si>
-  <si>
-    <t>Martynova Asida Khristoforovna</t>
-  </si>
-  <si>
-    <t>Rodionov Paramon Vladislavovich</t>
-  </si>
-  <si>
-    <t>Zhukova Bronislava Al'bertovna</t>
-  </si>
-  <si>
-    <t>Conner Briggs</t>
-  </si>
-  <si>
-    <t>Elisa Caldwell</t>
-  </si>
-  <si>
-    <t>Danika Cardenas</t>
-  </si>
-  <si>
-    <t>Burov Leonid Maksimovich</t>
-  </si>
-  <si>
-    <t>Efimov Lavr Germannovich</t>
-  </si>
-  <si>
-    <t>Biryukova Zoya Antonovna</t>
-  </si>
-  <si>
-    <t>Giovanna Mendez</t>
-  </si>
-  <si>
-    <t>Tyler Lowe</t>
-  </si>
-  <si>
-    <t>Cassandra Singh</t>
-  </si>
-  <si>
-    <t>Zykova Ada Aleksandrovna</t>
+    <t>Attention to detail, Research</t>
+  </si>
+  <si>
+    <t>Problem solving, Research</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Empathy</t>
+  </si>
+  <si>
+    <t>Problem solving</t>
+  </si>
+  <si>
+    <t>Teamwork, Accountability, Research</t>
+  </si>
+  <si>
+    <t>Communication, Helpfulness, Creativity</t>
+  </si>
+  <si>
+    <t>Helpfulness, Problem solving, Research</t>
+  </si>
+  <si>
+    <t>Empathy, Teamwork, Time management</t>
+  </si>
+  <si>
+    <t>Problem solving, Helpfulness, Time management</t>
+  </si>
+  <si>
+    <t>Problem solving, Accountability, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Teamwork, Creativity</t>
+  </si>
+  <si>
+    <t>Creativity, Attention to detail, Communication</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
+  </si>
+  <si>
+    <t>Time management, Attention to detail, Problem solving</t>
+  </si>
+  <si>
+    <t>Helpfulness, Communication</t>
+  </si>
+  <si>
+    <t>Patience, Attention to detail</t>
+  </si>
+  <si>
+    <t>Approachability</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Problem solving, Communication</t>
+  </si>
+  <si>
+    <t>Research, Empathy</t>
+  </si>
+  <si>
+    <t>Problem solving, Attention to detail</t>
+  </si>
+  <si>
+    <t>Approachability, Teamwork, Research</t>
+  </si>
+  <si>
+    <t>Approachability, Problem solving, Creativity</t>
+  </si>
+  <si>
+    <t>Communication, Approachability</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Patience, Time management</t>
+  </si>
+  <si>
+    <t>Patience, Accountability</t>
+  </si>
+  <si>
+    <t>Helpfulness</t>
+  </si>
+  <si>
+    <t>Approachability, Time management</t>
+  </si>
+  <si>
+    <t>Time management, Teamwork, Accountability</t>
   </si>
   <si>
     <t>Research</t>
   </si>
   <si>
-    <t>Helpfulness</t>
+    <t>Creativity, Research, Attention to detail</t>
+  </si>
+  <si>
+    <t>Helpfulness, Time management, Patience</t>
+  </si>
+  <si>
+    <t>Patience, Empathy, Problem solving</t>
+  </si>
+  <si>
+    <t>Time management, Research, Helpfulness</t>
+  </si>
+  <si>
+    <t>Time management, Patience, Attention to detail</t>
+  </si>
+  <si>
+    <t>Creativity</t>
+  </si>
+  <si>
+    <t>Empathy, Time management, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Teamwork, Research, Attention to detail</t>
+  </si>
+  <si>
+    <t>Patience, Problem solving</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Communication</t>
+  </si>
+  <si>
+    <t>Empathy, Time management, Creativity</t>
+  </si>
+  <si>
+    <t>Creativity, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Attention to detail, Helpfulness</t>
+  </si>
+  <si>
+    <t>Patience, Creativity, Accountability</t>
+  </si>
+  <si>
+    <t>Helpfulness, Approachability</t>
+  </si>
+  <si>
+    <t>Patience, Creativity</t>
+  </si>
+  <si>
+    <t>Patience, Creativity, Communication</t>
+  </si>
+  <si>
+    <t>Empathy, Research, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Accountability, Empathy, Problem solving</t>
+  </si>
+  <si>
+    <t>Approachability, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Accountability, Teamwork</t>
+  </si>
+  <si>
+    <t>Problem solving, Time management</t>
+  </si>
+  <si>
+    <t>Approachability, Helpfulness, Research</t>
+  </si>
+  <si>
+    <t>Communication, Teamwork, Empathy</t>
+  </si>
+  <si>
+    <t>Time management, Empathy</t>
+  </si>
+  <si>
+    <t>Patience, Empathy, Research</t>
+  </si>
+  <si>
+    <t>Patience</t>
+  </si>
+  <si>
+    <t>Patience, Attention to detail, Helpfulness</t>
+  </si>
+  <si>
+    <t>Communication, Problem solving, Teamwork</t>
+  </si>
+  <si>
+    <t>Accountability, Approachability</t>
+  </si>
+  <si>
+    <t>Open-mindedness</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>Teamwork, Attention to detail, Communication</t>
+  </si>
+  <si>
+    <t>Helpfulness, Problem solving, Accountability</t>
+  </si>
+  <si>
+    <t>Helpfulness, Creativity</t>
+  </si>
+  <si>
+    <t>Teamwork, Accountability</t>
+  </si>
+  <si>
+    <t>Communication, Research</t>
+  </si>
+  <si>
+    <t>Teamwork, Attention to detail</t>
+  </si>
+  <si>
+    <t>Attention to detail, Approachability, Empathy</t>
+  </si>
+  <si>
+    <t>Approachability, Problem solving, Research</t>
+  </si>
+  <si>
+    <t>Attention to detail, Research, Time management</t>
+  </si>
+  <si>
+    <t>Patience, Approachability</t>
+  </si>
+  <si>
+    <t>Patience, Time management</t>
+  </si>
+  <si>
+    <t>Time management, Open-mindedness, Research</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Approachability, Problem solving</t>
+  </si>
+  <si>
+    <t>Communication, Empathy, Time management</t>
+  </si>
+  <si>
+    <t>Approachability, Communication</t>
+  </si>
+  <si>
+    <t>Communication, Creativity</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Teamwork</t>
+  </si>
+  <si>
+    <t>Approachability, Attention to detail, Time management</t>
+  </si>
+  <si>
+    <t>Approachability, Communication, Helpfulness</t>
+  </si>
+  <si>
+    <t>Teamwork, Research, Helpfulness</t>
+  </si>
+  <si>
+    <t>Time management, Problem solving, Research</t>
+  </si>
+  <si>
+    <t>Time management, Accountability, Communication</t>
+  </si>
+  <si>
+    <t>Creativity, Patience</t>
+  </si>
+  <si>
+    <t>Research, Communication</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Accountability, Attention to detail</t>
+  </si>
+  <si>
+    <t>Problem solving, Time management, Patience</t>
+  </si>
+  <si>
+    <t>Accountability, Creativity, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Communication, Helpfulness, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Creativity, Attention to detail</t>
+  </si>
+  <si>
+    <t>Time management, Helpfulness</t>
+  </si>
+  <si>
+    <t>Problem solving, Time management, Research</t>
+  </si>
+  <si>
+    <t>Empathy, Creativity, Patience</t>
+  </si>
+  <si>
+    <t>Problem solving, Approachability</t>
+  </si>
+  <si>
+    <t>Approachability, Empathy, Accountability</t>
+  </si>
+  <si>
+    <t>Attention to detail, Problem solving, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Attention to detail, Time management, Communication</t>
+  </si>
+  <si>
+    <t>Research, Time management, Accountability</t>
+  </si>
+  <si>
+    <t>Creativity, Teamwork, Patience</t>
+  </si>
+  <si>
+    <t>Creativity, Communication, Teamwork</t>
+  </si>
+  <si>
+    <t>Accountability</t>
+  </si>
+  <si>
+    <t>Attention to detail, Problem solving, Creativity</t>
+  </si>
+  <si>
+    <t>Research, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Accountability, Problem solving</t>
+  </si>
+  <si>
+    <t>Empathy</t>
+  </si>
+  <si>
+    <t>Time management, Accountability, Helpfulness</t>
+  </si>
+  <si>
+    <t>Empathy, Research</t>
+  </si>
+  <si>
+    <t>Patience, Problem solving, Helpfulness</t>
   </si>
   <si>
     <t>Communication, Helpfulness</t>
   </si>
   <si>
-    <t>Teamwork, Empathy</t>
-  </si>
-  <si>
-    <t>Creativity</t>
-  </si>
-  <si>
-    <t>Patience, Research, Communication</t>
-  </si>
-  <si>
-    <t>Helpfulness, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Patience, Teamwork, Time management</t>
-  </si>
-  <si>
-    <t>Problem solving</t>
+    <t>Helpfulness, Attention to detail, Time management</t>
+  </si>
+  <si>
+    <t>Teamwork, Patience</t>
+  </si>
+  <si>
+    <t>Creativity, Helpfulness, Attention to detail</t>
+  </si>
+  <si>
+    <t>Approachability, Open-mindedness, Time management</t>
+  </si>
+  <si>
+    <t>Attention to detail, Teamwork</t>
+  </si>
+  <si>
+    <t>Patience, Teamwork, Approachability</t>
+  </si>
+  <si>
+    <t>Attention to detail, Time management</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Creativity</t>
+  </si>
+  <si>
+    <t>Accountability, Attention to detail, Research</t>
+  </si>
+  <si>
+    <t>Problem solving, Patience</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Time management, Accountability</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Creativity, Teamwork</t>
+  </si>
+  <si>
+    <t>Accountability, Problem solving, Research</t>
+  </si>
+  <si>
+    <t>Helpfulness, Teamwork, Communication</t>
+  </si>
+  <si>
+    <t>Communication, Patience</t>
   </si>
   <si>
     <t>Time management, Communication</t>
   </si>
   <si>
-    <t>Patience</t>
-  </si>
-  <si>
-    <t>Patience, Empathy, Teamwork</t>
-  </si>
-  <si>
-    <t>Research, Problem solving, Creativity</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Patience, Research</t>
-  </si>
-  <si>
-    <t>Communication, Problem solving, Accountability</t>
-  </si>
-  <si>
-    <t>Empathy, Teamwork, Problem solving</t>
-  </si>
-  <si>
-    <t>Time management, Patience, Helpfulness</t>
-  </si>
-  <si>
-    <t>Accountability</t>
-  </si>
-  <si>
-    <t>Accountability, Helpfulness</t>
-  </si>
-  <si>
-    <t>Empathy, Time management, Problem solving</t>
-  </si>
-  <si>
-    <t>Accountability, Problem solving, Empathy</t>
-  </si>
-  <si>
-    <t>Teamwork, Approachability, Accountability</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Time management, Patience</t>
-  </si>
-  <si>
-    <t>Helpfulness, Patience, Time management</t>
-  </si>
-  <si>
-    <t>Teamwork, Problem solving, Creativity</t>
-  </si>
-  <si>
-    <t>Teamwork</t>
-  </si>
-  <si>
-    <t>Time management</t>
-  </si>
-  <si>
-    <t>Problem solving, Creativity</t>
-  </si>
-  <si>
-    <t>Approachability, Helpfulness, Patience</t>
-  </si>
-  <si>
-    <t>Empathy, Accountability, Communication</t>
-  </si>
-  <si>
-    <t>Teamwork, Communication, Research</t>
-  </si>
-  <si>
-    <t>Patience, Accountability</t>
-  </si>
-  <si>
-    <t>Research, Approachability</t>
-  </si>
-  <si>
-    <t>Approachability</t>
-  </si>
-  <si>
-    <t>Creativity, Empathy</t>
-  </si>
-  <si>
-    <t>Empathy, Accountability</t>
-  </si>
-  <si>
-    <t>Patience, Accountability, Approachability</t>
-  </si>
-  <si>
-    <t>Helpfulness, Teamwork, Empathy</t>
-  </si>
-  <si>
-    <t>Teamwork, Open-mindedness, Communication</t>
-  </si>
-  <si>
-    <t>Open-mindedness</t>
-  </si>
-  <si>
-    <t>Approachability, Time management</t>
-  </si>
-  <si>
-    <t>Empathy, Patience</t>
-  </si>
-  <si>
-    <t>Helpfulness, Approachability, Creativity</t>
-  </si>
-  <si>
-    <t>Time management, Helpfulness, Teamwork</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Communication, Time management</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Creativity, Teamwork</t>
-  </si>
-  <si>
-    <t>Patience, Approachability, Teamwork</t>
-  </si>
-  <si>
-    <t>Research, Empathy</t>
-  </si>
-  <si>
-    <t>Time management, Communication, Problem solving</t>
-  </si>
-  <si>
-    <t>Teamwork, Approachability</t>
-  </si>
-  <si>
-    <t>Creativity, Teamwork, Patience</t>
-  </si>
-  <si>
-    <t>Helpfulness, Problem solving, Time management</t>
+    <t>Time management, Helpfulness, Research</t>
+  </si>
+  <si>
+    <t>Helpfulness, Empathy, Creativity</t>
+  </si>
+  <si>
+    <t>Accountability, Patience</t>
+  </si>
+  <si>
+    <t>Creativity, Research, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Communication, Teamwork</t>
+  </si>
+  <si>
+    <t>Creativity, Empathy, Communication</t>
+  </si>
+  <si>
+    <t>Creativity, Problem solving</t>
+  </si>
+  <si>
+    <t>Time management, Creativity, Empathy</t>
+  </si>
+  <si>
+    <t>Problem solving, Teamwork, Attention to detail</t>
+  </si>
+  <si>
+    <t>Attention to detail, Accountability</t>
+  </si>
+  <si>
+    <t>Approachability, Accountability, Patience</t>
+  </si>
+  <si>
+    <t>Research, Attention to detail</t>
+  </si>
+  <si>
+    <t>Attention to detail</t>
+  </si>
+  <si>
+    <t>Communication, Teamwork, Problem solving</t>
+  </si>
+  <si>
+    <t>Attention to detail, Empathy, Approachability</t>
+  </si>
+  <si>
+    <t>Attention to detail, Creativity, Patience</t>
+  </si>
+  <si>
+    <t>Helpfulness, Attention to detail, Research</t>
+  </si>
+  <si>
+    <t>Problem solving, Helpfulness</t>
+  </si>
+  <si>
+    <t>Creativity, Helpfulness</t>
+  </si>
+  <si>
+    <t>Patience, Empathy</t>
+  </si>
+  <si>
+    <t>Attention to detail, Empathy, Accountability</t>
+  </si>
+  <si>
+    <t>Empathy, Time management, Accountability</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Accountability</t>
+  </si>
+  <si>
+    <t>Time management, Accountability</t>
+  </si>
+  <si>
+    <t>Empathy, Communication</t>
+  </si>
+  <si>
+    <t>Approachability, Research, Attention to detail</t>
+  </si>
+  <si>
+    <t>Communication, Attention to detail</t>
+  </si>
+  <si>
+    <t>Time management, Research, Communication</t>
+  </si>
+  <si>
+    <t>Time management, Open-mindedness, Empathy</t>
+  </si>
+  <si>
+    <t>Accountability, Time management, Approachability</t>
+  </si>
+  <si>
+    <t>Creativity, Accountability</t>
+  </si>
+  <si>
+    <t>Approachability, Problem solving, Accountability</t>
+  </si>
+  <si>
+    <t>Attention to detail, Accountability, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Communication, Accountability, Approachability</t>
+  </si>
+  <si>
+    <t>Time management, Communication, Approachability</t>
+  </si>
+  <si>
+    <t>Open-mindedness, Attention to detail, Patience</t>
+  </si>
+  <si>
+    <t>Patience, Approachability, Helpfulness</t>
+  </si>
+  <si>
+    <t>Problem solving, Attention to detail, Communication</t>
+  </si>
+  <si>
+    <t>Time management, Creativity</t>
+  </si>
+  <si>
+    <t>Research, Teamwork, Attention to detail</t>
   </si>
   <si>
     <t>Empathy, Teamwork</t>
   </si>
   <si>
+    <t>Approachability, Empathy</t>
+  </si>
+  <si>
+    <t>Accountability, Attention to detail</t>
+  </si>
+  <si>
+    <t>Creativity, Empathy, Accountability</t>
+  </si>
+  <si>
     <t>Approachability, Accountability</t>
   </si>
   <si>
-    <t>Time management, Problem solving, Communication</t>
-  </si>
-  <si>
-    <t>Approachability, Open-mindedness, Research</t>
-  </si>
-  <si>
-    <t>Research, Creativity</t>
-  </si>
-  <si>
-    <t>Communication, Patience, Time management</t>
-  </si>
-  <si>
-    <t>Empathy, Communication, Creativity</t>
-  </si>
-  <si>
-    <t>Helpfulness, Time management</t>
-  </si>
-  <si>
-    <t>Empathy, Time management, Accountability</t>
-  </si>
-  <si>
-    <t>Accountability, Patience</t>
-  </si>
-  <si>
-    <t>Research, Accountability, Helpfulness</t>
-  </si>
-  <si>
-    <t>Problem solving, Communication, Patience</t>
-  </si>
-  <si>
-    <t>Time management, Teamwork, Helpfulness</t>
-  </si>
-  <si>
-    <t>Empathy</t>
-  </si>
-  <si>
-    <t>Empathy, Helpfulness</t>
-  </si>
-  <si>
-    <t>Empathy, Accountability, Research</t>
-  </si>
-  <si>
-    <t>Accountability, Empathy, Teamwork</t>
-  </si>
-  <si>
-    <t>Creativity, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Open-mindedness, Patience</t>
-  </si>
-  <si>
-    <t>Communication, Empathy</t>
-  </si>
-  <si>
-    <t>Patience, Empathy</t>
-  </si>
-  <si>
-    <t>Problem solving, Research, Helpfulness</t>
-  </si>
-  <si>
-    <t>Research, Time management</t>
-  </si>
-  <si>
-    <t>Teamwork, Research, Time management</t>
-  </si>
-  <si>
-    <t>Patience, Helpfulness, Teamwork</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Teamwork, Creativity</t>
-  </si>
-  <si>
-    <t>Teamwork, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness, Communication</t>
-  </si>
-  <si>
-    <t>Communication, Time management</t>
-  </si>
-  <si>
-    <t>Accountability, Problem solving, Teamwork</t>
-  </si>
-  <si>
-    <t>Accountability, Problem solving, Creativity</t>
-  </si>
-  <si>
-    <t>Empathy, Teamwork, Helpfulness</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Time management</t>
-  </si>
-  <si>
-    <t>Patience, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Helpfulness</t>
-  </si>
-  <si>
-    <t>Time management, Problem solving, Accountability</t>
-  </si>
-  <si>
-    <t>Problem solving, Accountability, Helpfulness</t>
-  </si>
-  <si>
-    <t>Research, Time management, Communication</t>
-  </si>
-  <si>
-    <t>Empathy, Creativity, Approachability</t>
-  </si>
-  <si>
-    <t>Communication, Problem solving</t>
-  </si>
-  <si>
-    <t>Patience, Approachability</t>
-  </si>
-  <si>
-    <t>Empathy, Helpfulness, Problem solving</t>
+    <t>Teamwork, Problem solving, Attention to detail</t>
+  </si>
+  <si>
+    <t>Helpfulness, Attention to detail, Communication</t>
   </si>
   <si>
     <t>Empathy, Time management</t>
   </si>
   <si>
-    <t>Time management, Teamwork, Problem solving</t>
-  </si>
-  <si>
-    <t>Approachability, Problem solving</t>
-  </si>
-  <si>
-    <t>Accountability, Teamwork, Research</t>
-  </si>
-  <si>
-    <t>Problem solving, Helpfulness</t>
-  </si>
-  <si>
-    <t>Empathy, Creativity</t>
-  </si>
-  <si>
-    <t>Approachability, Communication, Teamwork</t>
-  </si>
-  <si>
-    <t>Patience, Communication</t>
-  </si>
-  <si>
-    <t>Helpfulness, Empathy</t>
-  </si>
-  <si>
-    <t>Communication, Teamwork, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Research, Communication, Problem solving</t>
-  </si>
-  <si>
-    <t>Research, Time management, Empathy</t>
-  </si>
-  <si>
-    <t>Problem solving, Accountability</t>
-  </si>
-  <si>
-    <t>Time management, Approachability, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Helpfulness, Accountability, Time management</t>
-  </si>
-  <si>
-    <t>Teamwork, Time management, Research</t>
-  </si>
-  <si>
-    <t>Teamwork, Accountability, Research</t>
-  </si>
-  <si>
-    <t>Accountability, Creativity</t>
-  </si>
-  <si>
-    <t>Problem solving, Patience, Teamwork</t>
-  </si>
-  <si>
-    <t>Communication, Creativity, Teamwork</t>
-  </si>
-  <si>
-    <t>Research, Teamwork</t>
-  </si>
-  <si>
-    <t>Time management, Problem solving, Empathy</t>
-  </si>
-  <si>
-    <t>Accountability, Approachability, Time management</t>
-  </si>
-  <si>
-    <t>Teamwork, Communication</t>
-  </si>
-  <si>
-    <t>Patience, Problem solving, Helpfulness</t>
-  </si>
-  <si>
-    <t>Accountability, Teamwork</t>
-  </si>
-  <si>
-    <t>Time management, Communication, Teamwork</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Empathy</t>
-  </si>
-  <si>
-    <t>Teamwork, Helpfulness</t>
-  </si>
-  <si>
-    <t>Teamwork, Problem solving</t>
-  </si>
-  <si>
-    <t>Helpfulness, Approachability, Patience</t>
-  </si>
-  <si>
-    <t>Time management, Teamwork, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Patience</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Accountability</t>
-  </si>
-  <si>
-    <t>Accountability, Research, Creativity</t>
-  </si>
-  <si>
-    <t>Research, Patience, Helpfulness</t>
-  </si>
-  <si>
-    <t>Time management, Creativity, Communication</t>
-  </si>
-  <si>
-    <t>Accountability, Helpfulness, Research</t>
-  </si>
-  <si>
-    <t>Research, Problem solving, Helpfulness</t>
-  </si>
-  <si>
-    <t>Problem solving, Communication, Accountability</t>
-  </si>
-  <si>
-    <t>Teamwork, Helpfulness, Accountability</t>
-  </si>
-  <si>
-    <t>Teamwork, Creativity</t>
-  </si>
-  <si>
-    <t>Problem solving, Empathy, Teamwork</t>
-  </si>
-  <si>
-    <t>Research, Communication, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Helpfulness, Creativity, Empathy</t>
-  </si>
-  <si>
-    <t>Time management, Communication, Patience</t>
-  </si>
-  <si>
-    <t>Communication, Teamwork</t>
-  </si>
-  <si>
-    <t>Time management, Accountability</t>
-  </si>
-  <si>
-    <t>Approachability, Creativity, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Creativity, Time management</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Problem solving, Patience</t>
-  </si>
-  <si>
-    <t>Empathy, Problem solving</t>
-  </si>
-  <si>
-    <t>Problem solving, Patience, Time management</t>
-  </si>
-  <si>
-    <t>Helpfulness, Patience</t>
-  </si>
-  <si>
-    <t>Communication, Open-mindedness, Approachability</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Research</t>
-  </si>
-  <si>
-    <t>Research, Accountability</t>
-  </si>
-  <si>
-    <t>Accountability, Teamwork, Helpfulness</t>
-  </si>
-  <si>
-    <t>Empathy, Patience, Research</t>
-  </si>
-  <si>
-    <t>Accountability, Empathy</t>
-  </si>
-  <si>
-    <t>Helpfulness, Empathy, Problem solving</t>
-  </si>
-  <si>
-    <t>Problem solving, Empathy, Creativity</t>
-  </si>
-  <si>
-    <t>Approachability, Empathy</t>
-  </si>
-  <si>
-    <t>Research, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Research, Helpfulness</t>
-  </si>
-  <si>
-    <t>Teamwork, Empathy, Communication</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Problem solving, Accountability, Empathy</t>
-  </si>
-  <si>
-    <t>Helpfulness, Research, Empathy</t>
-  </si>
-  <si>
-    <t>Helpfulness, Time management, Patience</t>
-  </si>
-  <si>
-    <t>Teamwork, Helpfulness, Communication</t>
-  </si>
-  <si>
-    <t>Approachability, Creativity</t>
-  </si>
-  <si>
-    <t>Time management, Open-mindedness, Research</t>
-  </si>
-  <si>
-    <t>Patience, Teamwork, Helpfulness</t>
-  </si>
-  <si>
-    <t>Communication, Accountability, Creativity</t>
-  </si>
-  <si>
-    <t>Empathy, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Time management, Creativity, Problem solving</t>
-  </si>
-  <si>
-    <t>Creativity, Open-mindedness, Approachability</t>
-  </si>
-  <si>
-    <t>Empathy, Research, Communication</t>
-  </si>
-  <si>
-    <t>Teamwork, Creativity, Empathy</t>
-  </si>
-  <si>
-    <t>Helpfulness, Communication, Empathy</t>
-  </si>
-  <si>
-    <t>Helpfulness, Creativity, Communication</t>
-  </si>
-  <si>
-    <t>Communication, Accountability</t>
-  </si>
-  <si>
-    <t>Problem solving, Time management, Research</t>
-  </si>
-  <si>
-    <t>Open-mindedness, Helpfulness, Problem solving</t>
-  </si>
-  <si>
-    <t>Problem solving, Patience, Creativity</t>
-  </si>
-  <si>
-    <t>Empathy, Communication</t>
-  </si>
-  <si>
-    <t>Creativity, Accountability, Teamwork</t>
-  </si>
-  <si>
-    <t>Communication, Empathy, Accountability</t>
-  </si>
-  <si>
-    <t>Patience, Research</t>
-  </si>
-  <si>
-    <t>Communication, Open-mindedness</t>
-  </si>
-  <si>
-    <t>Empathy, Helpfulness, Patience</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Web, XML</t>
+    <t>Problem solving, Patience, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Empathy, Approachability, Research</t>
+  </si>
+  <si>
+    <t>Teamwork, Accountability, Problem solving</t>
+  </si>
+  <si>
+    <t>Attention to detail, Empathy, Open-mindedness</t>
+  </si>
+  <si>
+    <t>Creativity, Time management, Accountability</t>
+  </si>
+  <si>
+    <t>Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>XML, C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Linux, Web, Microsoft C#</t>
+  </si>
+  <si>
+    <t>JAVA, JavaScript, Python</t>
+  </si>
+  <si>
+    <t>Web, .NET Programming, Python</t>
+  </si>
+  <si>
+    <t>Python, Web</t>
+  </si>
+  <si>
+    <t>Oracle, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>JAVA, Microsoft C#</t>
+  </si>
+  <si>
+    <t>Python, Linux</t>
+  </si>
+  <si>
+    <t>XML, .NET Programming, C++</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Microsoft C#</t>
+  </si>
+  <si>
+    <t>C++, Microsoft C#, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL, .NET Programming, Web</t>
+  </si>
+  <si>
+    <t>Linux, JavaScript</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#</t>
+  </si>
+  <si>
+    <t>.NET Programming, Linux, JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript, Web, Python</t>
+  </si>
+  <si>
+    <t>SQL, XML, JAVA</t>
+  </si>
+  <si>
+    <t>C++, Web</t>
+  </si>
+  <si>
+    <t>Web, Linux, Oracle</t>
+  </si>
+  <si>
+    <t>Linux, XML</t>
+  </si>
+  <si>
+    <t>SQL, XML</t>
+  </si>
+  <si>
+    <t>JavaScript, XML</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>JAVA, SQL, XML</t>
+  </si>
+  <si>
+    <t>JavaScript, JAVA</t>
+  </si>
+  <si>
+    <t>Web, XML</t>
+  </si>
+  <si>
+    <t>SQL, Linux</t>
+  </si>
+  <si>
+    <t>C++, Oracle, XML</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>Microsoft C#, Oracle, C++</t>
+  </si>
+  <si>
+    <t>Python, Web, Oracle</t>
+  </si>
+  <si>
+    <t>JAVA, .NET Programming</t>
+  </si>
+  <si>
+    <t>Web, C++</t>
+  </si>
+  <si>
+    <t>C++, SQL, JavaScript</t>
+  </si>
+  <si>
+    <t>JAVA, XML, Microsoft C#</t>
+  </si>
+  <si>
+    <t>C++, Linux, Oracle</t>
+  </si>
+  <si>
+    <t>C++, Web, Linux</t>
+  </si>
+  <si>
+    <t>Python, JavaScript, SQL</t>
+  </si>
+  <si>
+    <t>Oracle, Linux, C++</t>
+  </si>
+  <si>
+    <t>.NET Programming, Microsoft C#, Web</t>
+  </si>
+  <si>
+    <t>C++, Oracle</t>
+  </si>
+  <si>
+    <t>JavaScript, SQL</t>
+  </si>
+  <si>
+    <t>XML, .NET Programming</t>
+  </si>
+  <si>
+    <t>JAVA, SQL, C++</t>
+  </si>
+  <si>
+    <t>XML, .NET Programming, JavaScript</t>
+  </si>
+  <si>
+    <t>C++, .NET Programming</t>
+  </si>
+  <si>
+    <t>JavaScript, .NET Programming</t>
+  </si>
+  <si>
+    <t>XML, C++, Microsoft C#</t>
+  </si>
+  <si>
+    <t>.NET Programming, Linux, Oracle</t>
+  </si>
+  <si>
+    <t>Microsoft C#, .NET Programming, Linux</t>
+  </si>
+  <si>
+    <t>SQL, XML, C++</t>
+  </si>
+  <si>
+    <t>Python, Microsoft C#, .NET Programming</t>
+  </si>
+  <si>
+    <t>XML, SQL</t>
+  </si>
+  <si>
+    <t>Oracle, Web, Python</t>
+  </si>
+  <si>
+    <t>JAVA, C++</t>
+  </si>
+  <si>
+    <t>SQL, Microsoft C#, Oracle</t>
+  </si>
+  <si>
+    <t>Oracle, XML</t>
+  </si>
+  <si>
+    <t>C++, Python</t>
+  </si>
+  <si>
+    <t>Python, SQL, XML</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>.NET Programming</t>
+  </si>
+  <si>
+    <t>Python, SQL, JAVA</t>
+  </si>
+  <si>
+    <t>Microsoft C#, Oracle</t>
+  </si>
+  <si>
+    <t>C++, .NET Programming, XML</t>
+  </si>
+  <si>
+    <t>.NET Programming, Oracle, Microsoft C#</t>
+  </si>
+  <si>
+    <t>JAVA, JavaScript, Web</t>
+  </si>
+  <si>
+    <t>SQL, JAVA, C++</t>
+  </si>
+  <si>
+    <t>JAVA, Linux, Microsoft C#</t>
+  </si>
+  <si>
+    <t>.NET Programming, XML</t>
+  </si>
+  <si>
+    <t>.NET Programming, SQL</t>
+  </si>
+  <si>
+    <t>XML, C++, Linux</t>
+  </si>
+  <si>
+    <t>C++, JAVA, Microsoft C#</t>
+  </si>
+  <si>
+    <t>C++, JavaScript, JAVA</t>
+  </si>
+  <si>
+    <t>.NET Programming, SQL, Python</t>
+  </si>
+  <si>
+    <t>JAVA, Oracle</t>
+  </si>
+  <si>
+    <t>Oracle, C++</t>
+  </si>
+  <si>
+    <t>XML, JAVA, Microsoft C#</t>
+  </si>
+  <si>
+    <t>SQL, JAVA, .NET Programming</t>
+  </si>
+  <si>
+    <t>C++, JavaScript, Microsoft C#</t>
+  </si>
+  <si>
+    <t>Microsoft C#, C++, Linux</t>
+  </si>
+  <si>
+    <t>Linux, SQL</t>
+  </si>
+  <si>
+    <t>SQL, Python</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#, Linux</t>
+  </si>
+  <si>
+    <t>Linux, JavaScript, C++</t>
+  </si>
+  <si>
+    <t>Microsoft C#, Oracle, JAVA</t>
+  </si>
+  <si>
+    <t>Python, .NET Programming, SQL</t>
+  </si>
+  <si>
+    <t>Oracle, Linux, SQL</t>
+  </si>
+  <si>
+    <t>Python, Microsoft C#, Web</t>
+  </si>
+  <si>
+    <t>JAVA, Web</t>
+  </si>
+  <si>
+    <t>JavaScript, XML, Microsoft C#</t>
+  </si>
+  <si>
+    <t>SQL, C++, JAVA</t>
+  </si>
+  <si>
+    <t>.NET Programming, SQL, Microsoft C#</t>
+  </si>
+  <si>
+    <t>Python, JAVA, JavaScript</t>
+  </si>
+  <si>
+    <t>C++, JavaScript, Linux</t>
+  </si>
+  <si>
+    <t>JavaScript, SQL, Linux</t>
+  </si>
+  <si>
+    <t>Python, Microsoft C#</t>
+  </si>
+  <si>
+    <t>XML, Oracle</t>
+  </si>
+  <si>
+    <t>Web, JAVA, JavaScript</t>
+  </si>
+  <si>
+    <t>Microsoft C#, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL, .NET Programming</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#, Oracle</t>
+  </si>
+  <si>
+    <t>XML, JAVA</t>
+  </si>
+  <si>
+    <t>Microsoft C#, Linux, C++</t>
+  </si>
+  <si>
+    <t>Linux, C++, Python</t>
+  </si>
+  <si>
+    <t>Linux, Python</t>
+  </si>
+  <si>
+    <t>Oracle, Linux, JavaScript</t>
+  </si>
+  <si>
+    <t>JavaScript, Web, Oracle</t>
+  </si>
+  <si>
+    <t>Python, SQL, Oracle</t>
+  </si>
+  <si>
+    <t>XML, .NET Programming, Linux</t>
+  </si>
+  <si>
+    <t>.NET Programming, Python, JAVA</t>
+  </si>
+  <si>
+    <t>.NET Programming, Microsoft C#</t>
+  </si>
+  <si>
+    <t>SQL, JavaScript, Python</t>
+  </si>
+  <si>
+    <t>JAVA, Linux, .NET Programming</t>
+  </si>
+  <si>
+    <t>Web, Microsoft C#</t>
+  </si>
+  <si>
+    <t>XML, JAVA, C++</t>
+  </si>
+  <si>
+    <t>Python, .NET Programming</t>
+  </si>
+  <si>
+    <t>SQL, Microsoft C#</t>
+  </si>
+  <si>
+    <t>Linux, JAVA</t>
+  </si>
+  <si>
+    <t>JAVA, JavaScript, .NET Programming</t>
+  </si>
+  <si>
+    <t>.NET Programming, Python</t>
+  </si>
+  <si>
+    <t>Web, Linux</t>
+  </si>
+  <si>
+    <t>Python, JavaScript, C++</t>
+  </si>
+  <si>
+    <t>.NET Programming, Oracle, JavaScript</t>
+  </si>
+  <si>
+    <t>XML, JavaScript</t>
+  </si>
+  <si>
+    <t>Linux, C++, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL, JAVA</t>
   </si>
   <si>
     <t>SQL, Oracle</t>
   </si>
   <si>
-    <t>C++, Python, Web</t>
-  </si>
-  <si>
-    <t>Web, Python</t>
-  </si>
-  <si>
-    <t>.NET Programming</t>
-  </si>
-  <si>
-    <t>JavaScript, Oracle</t>
-  </si>
-  <si>
-    <t>JavaScript, SQL</t>
-  </si>
-  <si>
-    <t>XML</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>Microsoft C#</t>
-  </si>
-  <si>
-    <t>JAVA, Python</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Linux</t>
-  </si>
-  <si>
-    <t>JavaScript, SQL, JAVA</t>
-  </si>
-  <si>
-    <t>.NET Programming, Linux</t>
-  </si>
-  <si>
-    <t>SQL, JAVA, C++</t>
-  </si>
-  <si>
-    <t>XML, Python</t>
-  </si>
-  <si>
-    <t>Python, JAVA</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Linux, .NET Programming, JAVA</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>Web, Microsoft C#, .NET Programming</t>
-  </si>
-  <si>
-    <t>Linux, .NET Programming</t>
-  </si>
-  <si>
-    <t>.NET Programming, Linux, Microsoft C#</t>
-  </si>
-  <si>
-    <t>JAVA</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Python, Oracle</t>
-  </si>
-  <si>
-    <t>Linux, Python</t>
-  </si>
-  <si>
-    <t>.NET Programming, JAVA</t>
-  </si>
-  <si>
-    <t>XML, .NET Programming</t>
-  </si>
-  <si>
-    <t>Linux, Web, Python</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Python, JavaScript</t>
-  </si>
-  <si>
-    <t>C++, Web</t>
-  </si>
-  <si>
-    <t>JavaScript, C++</t>
-  </si>
-  <si>
-    <t>JAVA, .NET Programming, SQL</t>
-  </si>
-  <si>
-    <t>JAVA, SQL, .NET Programming</t>
-  </si>
-  <si>
-    <t>Linux, Oracle</t>
-  </si>
-  <si>
-    <t>JavaScript, Web</t>
-  </si>
-  <si>
-    <t>Oracle, SQL, Python</t>
-  </si>
-  <si>
-    <t>JavaScript, Python</t>
-  </si>
-  <si>
-    <t>XML, SQL</t>
-  </si>
-  <si>
-    <t>SQL, .NET Programming</t>
-  </si>
-  <si>
-    <t>.NET Programming, SQL, Linux</t>
-  </si>
-  <si>
-    <t>SQL, Microsoft C#, C++</t>
-  </si>
-  <si>
-    <t>SQL, C++, Linux</t>
-  </si>
-  <si>
-    <t>Python, Microsoft C#, Web</t>
-  </si>
-  <si>
-    <t>Web, JavaScript, .NET Programming</t>
-  </si>
-  <si>
-    <t>SQL, Linux, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Python, C++, XML</t>
-  </si>
-  <si>
-    <t>.NET Programming, Python, Web</t>
-  </si>
-  <si>
-    <t>Oracle, Python</t>
-  </si>
-  <si>
-    <t>Microsoft C#, JavaScript</t>
-  </si>
-  <si>
-    <t>.NET Programming, JAVA, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Web, Oracle, Python</t>
-  </si>
-  <si>
-    <t>C++, JAVA</t>
-  </si>
-  <si>
-    <t>JavaScript, Python, Oracle</t>
-  </si>
-  <si>
-    <t>Linux, Web, JavaScript</t>
-  </si>
-  <si>
-    <t>Oracle, Microsoft C#</t>
-  </si>
-  <si>
-    <t>JavaScript, .NET Programming, C++</t>
-  </si>
-  <si>
-    <t>.NET Programming, XML, Python</t>
-  </si>
-  <si>
-    <t>Linux, .NET Programming, JavaScript</t>
-  </si>
-  <si>
-    <t>.NET Programming, SQL, C++</t>
-  </si>
-  <si>
-    <t>JAVA, Linux, JavaScript</t>
-  </si>
-  <si>
-    <t>Web, XML, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Oracle</t>
+    <t>Linux, Web</t>
+  </si>
+  <si>
+    <t>Linux, XML, JavaScript</t>
+  </si>
+  <si>
+    <t>XML, Microsoft C#, JavaScript</t>
+  </si>
+  <si>
+    <t>SQL, JavaScript, XML</t>
+  </si>
+  <si>
+    <t>Oracle, SQL, JavaScript</t>
+  </si>
+  <si>
+    <t>Oracle, .NET Programming</t>
+  </si>
+  <si>
+    <t>Oracle, JAVA, XML</t>
+  </si>
+  <si>
+    <t>C++, SQL, Oracle</t>
+  </si>
+  <si>
+    <t>JAVA, JavaScript</t>
+  </si>
+  <si>
+    <t>Web, Python, JAVA</t>
+  </si>
+  <si>
+    <t>XML, Web</t>
+  </si>
+  <si>
+    <t>C++, XML, Oracle</t>
+  </si>
+  <si>
+    <t>.NET Programming, C++</t>
+  </si>
+  <si>
+    <t>JAVA, Web, Microsoft C#</t>
+  </si>
+  <si>
+    <t>JAVA, XML</t>
+  </si>
+  <si>
+    <t>Oracle, .NET Programming, Python</t>
+  </si>
+  <si>
+    <t>SQL, Microsoft C#, Linux</t>
+  </si>
+  <si>
+    <t>C++, Linux</t>
+  </si>
+  <si>
+    <t>Oracle, .NET Programming, SQL</t>
   </si>
   <si>
     <t>Microsoft C#, Python</t>
   </si>
   <si>
-    <t>C++, XML</t>
-  </si>
-  <si>
-    <t>JavaScript, XML, Microsoft C#</t>
-  </si>
-  <si>
-    <t>JAVA, C++</t>
-  </si>
-  <si>
-    <t>XML, .NET Programming, JavaScript</t>
-  </si>
-  <si>
-    <t>JavaScript, Linux</t>
-  </si>
-  <si>
-    <t>Python, Web</t>
-  </si>
-  <si>
-    <t>XML, Microsoft C#, .NET Programming</t>
-  </si>
-  <si>
-    <t>Web, .NET Programming, Oracle</t>
-  </si>
-  <si>
-    <t>Oracle, XML</t>
-  </si>
-  <si>
-    <t>C++, .NET Programming, Linux</t>
-  </si>
-  <si>
-    <t>JAVA, JavaScript</t>
-  </si>
-  <si>
-    <t>JavaScript, .NET Programming, Python</t>
-  </si>
-  <si>
-    <t>C++, JAVA, XML</t>
-  </si>
-  <si>
-    <t>XML, Linux, Python</t>
-  </si>
-  <si>
-    <t>C++, .NET Programming</t>
-  </si>
-  <si>
-    <t>JavaScript, JAVA</t>
-  </si>
-  <si>
-    <t>.NET Programming, C++, JavaScript</t>
-  </si>
-  <si>
-    <t>Microsoft C#, XML</t>
-  </si>
-  <si>
-    <t>Microsoft C#, .NET Programming</t>
-  </si>
-  <si>
-    <t>JavaScript, SQL, Linux</t>
-  </si>
-  <si>
-    <t>Python, .NET Programming</t>
-  </si>
-  <si>
-    <t>.NET Programming, C++</t>
-  </si>
-  <si>
-    <t>C++, JavaScript</t>
-  </si>
-  <si>
-    <t>Python, Oracle, XML</t>
-  </si>
-  <si>
-    <t>Linux, Web</t>
-  </si>
-  <si>
-    <t>Web, C++</t>
-  </si>
-  <si>
-    <t>Linux, XML, JAVA</t>
-  </si>
-  <si>
-    <t>SQL, JAVA</t>
-  </si>
-  <si>
-    <t>JavaScript, Microsoft C#</t>
-  </si>
-  <si>
-    <t>SQL, JavaScript, C++</t>
-  </si>
-  <si>
-    <t>XML, .NET Programming, Microsoft C#</t>
-  </si>
-  <si>
-    <t>XML, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Python, JAVA, .NET Programming</t>
-  </si>
-  <si>
-    <t>JavaScript, Microsoft C#, Linux</t>
-  </si>
-  <si>
-    <t>Web, SQL</t>
-  </si>
-  <si>
-    <t>Linux, Oracle, .NET Programming</t>
-  </si>
-  <si>
-    <t>JAVA, Web, SQL</t>
-  </si>
-  <si>
-    <t>JavaScript, Oracle, Python</t>
-  </si>
-  <si>
-    <t>SQL, Microsoft C#</t>
-  </si>
-  <si>
-    <t>C++, JAVA, Web</t>
-  </si>
-  <si>
-    <t>Oracle, Microsoft C#, .NET Programming</t>
-  </si>
-  <si>
-    <t>JavaScript, JAVA, .NET Programming</t>
-  </si>
-  <si>
-    <t>SQL, C++</t>
-  </si>
-  <si>
-    <t>Microsoft C#, XML, Linux</t>
-  </si>
-  <si>
-    <t>Microsoft C#, C++, .NET Programming</t>
-  </si>
-  <si>
-    <t>.NET Programming, Microsoft C#, JAVA</t>
-  </si>
-  <si>
-    <t>Oracle, Microsoft C#, XML</t>
-  </si>
-  <si>
-    <t>Python, Oracle, SQL</t>
-  </si>
-  <si>
-    <t>C++, Web, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Microsoft C#, JAVA, C++</t>
-  </si>
-  <si>
-    <t>JAVA, SQL</t>
-  </si>
-  <si>
-    <t>Python, Linux, JavaScript</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Oracle, Linux</t>
-  </si>
-  <si>
-    <t>XML, Python, C++</t>
-  </si>
-  <si>
-    <t>.NET Programming, Linux, C++</t>
-  </si>
-  <si>
-    <t>Microsoft C#, JAVA</t>
-  </si>
-  <si>
-    <t>SQL, JavaScript, Oracle</t>
-  </si>
-  <si>
-    <t>JAVA, XML, .NET Programming</t>
-  </si>
-  <si>
-    <t>JAVA, XML</t>
-  </si>
-  <si>
-    <t>Web, JAVA</t>
-  </si>
-  <si>
-    <t>Oracle, JAVA, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Microsoft C#, Python, Web</t>
-  </si>
-  <si>
-    <t>SQL, Web, Python</t>
-  </si>
-  <si>
-    <t>.NET Programming, Python, XML</t>
-  </si>
-  <si>
-    <t>XML, Web, JavaScript</t>
-  </si>
-  <si>
-    <t>Linux, JAVA</t>
-  </si>
-  <si>
-    <t>Web, XML, Python</t>
-  </si>
-  <si>
-    <t>Oracle, JAVA</t>
-  </si>
-  <si>
-    <t>Web, XML, SQL</t>
-  </si>
-  <si>
-    <t>SQL, Microsoft C#, .NET Programming</t>
-  </si>
-  <si>
-    <t>Python, JavaScript, JAVA</t>
-  </si>
-  <si>
-    <t>.NET Programming, JAVA, XML</t>
-  </si>
-  <si>
-    <t>Linux, JAVA, SQL</t>
-  </si>
-  <si>
-    <t>SQL, JavaScript</t>
-  </si>
-  <si>
-    <t>.NET Programming, Microsoft C#, Web</t>
-  </si>
-  <si>
-    <t>Oracle, XML, JAVA</t>
-  </si>
-  <si>
-    <t>SQL, JAVA, Web</t>
-  </si>
-  <si>
-    <t>Microsoft C#, C++</t>
-  </si>
-  <si>
-    <t>Linux, Web, C++</t>
-  </si>
-  <si>
-    <t>XML, Web</t>
-  </si>
-  <si>
-    <t>Linux, Microsoft C#, JAVA</t>
-  </si>
-  <si>
-    <t>JavaScript, XML, SQL</t>
-  </si>
-  <si>
-    <t>JAVA, SQL, Microsoft C#</t>
-  </si>
-  <si>
-    <t>JAVA, Oracle</t>
-  </si>
-  <si>
-    <t>.NET Programming, Web, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Python, XML, Microsoft C#</t>
-  </si>
-  <si>
-    <t>Oracle, JavaScript</t>
-  </si>
-  <si>
-    <t>C++, Oracle, Linux</t>
-  </si>
-  <si>
-    <t>Microsoft C#, SQL, .NET Programming</t>
-  </si>
-  <si>
-    <t>Web, C++, .NET Programming</t>
-  </si>
-  <si>
-    <t>Oracle, Python, .NET Programming</t>
-  </si>
-  <si>
-    <t>.NET Programming, Microsoft C#, C++</t>
-  </si>
-  <si>
-    <t>Microsoft C#, C++, XML</t>
-  </si>
-  <si>
-    <t>JavaScript, JAVA, Python</t>
+    <t>SQL, Microsoft C#, Web</t>
+  </si>
+  <si>
+    <t>SQL, .NET Programming, Python</t>
+  </si>
+  <si>
+    <t>Web, Microsoft C#, C++</t>
+  </si>
+  <si>
+    <t>SQL, JavaScript, JAVA</t>
+  </si>
+  <si>
+    <t>Oracle, XML, JavaScript</t>
+  </si>
+  <si>
+    <t>Oracle, Python, JAVA</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2283,7 @@
         <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2324,7 +2294,7 @@
         <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2335,7 +2305,7 @@
         <v>292</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2343,10 +2313,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2354,10 +2324,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2365,10 +2335,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2376,10 +2346,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2387,10 +2357,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2398,10 +2368,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2409,10 +2379,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2420,10 +2390,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2431,10 +2401,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2442,10 +2412,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2453,10 +2423,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2467,7 +2437,7 @@
         <v>303</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2478,7 +2448,7 @@
         <v>304</v>
       </c>
       <c r="C17" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2489,7 +2459,7 @@
         <v>305</v>
       </c>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2500,7 +2470,7 @@
         <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2508,10 +2478,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2519,10 +2489,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2530,10 +2500,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2541,10 +2511,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2552,10 +2522,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2563,10 +2533,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2574,10 +2544,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2585,10 +2555,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2596,10 +2566,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2607,10 +2577,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2618,10 +2588,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2629,10 +2599,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2640,7 +2610,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
         <v>494</v>
@@ -2651,10 +2621,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C33" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2662,10 +2632,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C34" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2673,10 +2643,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C35" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2684,10 +2654,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2695,10 +2665,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="C37" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2706,10 +2676,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C38" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2717,10 +2687,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2728,10 +2698,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="C40" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2739,10 +2709,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2750,10 +2720,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="C42" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2761,10 +2731,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2772,10 +2742,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>514</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2783,10 +2753,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="C45" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2794,7 +2764,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s">
         <v>503</v>
@@ -2805,10 +2775,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2816,10 +2786,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C48" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2827,10 +2797,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2838,10 +2808,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2849,10 +2819,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2860,10 +2830,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C52" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2871,10 +2841,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2882,10 +2852,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C54" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2893,10 +2863,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="C55" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2904,10 +2874,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C56" t="s">
-        <v>520</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2915,10 +2885,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="C57" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2926,10 +2896,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C58" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2937,10 +2907,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C59" t="s">
-        <v>522</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2948,10 +2918,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C60" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2959,10 +2929,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C61" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2970,10 +2940,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C62" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2981,10 +2951,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C63" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2992,10 +2962,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3003,10 +2973,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C65" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3014,10 +2984,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C66" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3025,10 +2995,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C67" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3036,10 +3006,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3047,10 +3017,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C69" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3058,10 +3028,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3069,10 +3039,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="C71" t="s">
-        <v>527</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3080,10 +3050,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C72" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3091,10 +3061,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3102,10 +3072,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C74" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3113,10 +3083,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3124,10 +3094,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C76" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3135,10 +3105,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3146,10 +3116,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="C78" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3157,10 +3127,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3168,10 +3138,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3179,10 +3149,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C81" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3190,10 +3160,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C82" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3201,10 +3171,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C83" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3212,10 +3182,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C84" t="s">
-        <v>536</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3223,10 +3193,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="C85" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3234,10 +3204,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="C86" t="s">
-        <v>538</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3245,10 +3215,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C87" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3256,10 +3226,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C88" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3267,10 +3237,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3278,10 +3248,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C90" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3289,10 +3259,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C91" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3300,10 +3270,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3311,10 +3281,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C93" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3322,10 +3292,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="C94" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3333,10 +3303,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3344,10 +3314,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3355,10 +3325,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3366,10 +3336,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="C98" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3377,10 +3347,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C99" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3388,10 +3358,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C100" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3399,10 +3369,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3410,10 +3380,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3421,10 +3391,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C103" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3432,10 +3402,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="C104" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3443,10 +3413,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C105" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3454,10 +3424,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C106" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3465,10 +3435,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="C107" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3476,10 +3446,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C108" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3487,10 +3457,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3498,10 +3468,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="C110" t="s">
-        <v>547</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3509,10 +3479,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C111" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3520,10 +3490,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C112" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3531,10 +3501,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C113" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3542,10 +3512,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3553,10 +3523,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C115" t="s">
-        <v>549</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3564,10 +3534,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>550</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3575,10 +3545,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3586,10 +3556,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C118" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3597,10 +3567,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="C119" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3608,10 +3578,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="C120" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3619,10 +3589,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="C121" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3630,10 +3600,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="C122" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3641,10 +3611,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C123" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3652,10 +3622,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
       <c r="C124" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3663,10 +3633,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C125" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3674,10 +3644,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>316</v>
       </c>
       <c r="C126" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3685,10 +3655,10 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>386</v>
       </c>
       <c r="C127" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3696,10 +3666,10 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C128" t="s">
-        <v>559</v>
+        <v>470</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3707,10 +3677,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>298</v>
+        <v>387</v>
       </c>
       <c r="C129" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3718,10 +3688,10 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C130" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3729,10 +3699,10 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="C131" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3740,10 +3710,10 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>384</v>
+        <v>316</v>
       </c>
       <c r="C132" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3751,10 +3721,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
       <c r="C133" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3762,10 +3732,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C134" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3773,10 +3743,10 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C135" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3784,10 +3754,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="C136" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3795,10 +3765,10 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3806,10 +3776,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="C138" t="s">
-        <v>507</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3817,10 +3787,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="C139" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3828,10 +3798,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="C140" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3839,10 +3809,10 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3850,10 +3820,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C142" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3861,10 +3831,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C143" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3872,10 +3842,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="C144" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3883,10 +3853,10 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="C145" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3894,10 +3864,10 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="C146" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3905,10 +3875,10 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="C147" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3916,10 +3886,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3927,10 +3897,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="C149" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3938,10 +3908,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="C150" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3949,10 +3919,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="C151" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3960,10 +3930,10 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C152" t="s">
-        <v>570</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3971,10 +3941,10 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="C153" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3982,10 +3952,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C154" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3993,10 +3963,10 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>573</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4004,10 +3974,10 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C156" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4015,10 +3985,10 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
       <c r="C157" t="s">
-        <v>574</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4026,10 +3996,10 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4037,10 +4007,10 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="C159" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4048,10 +4018,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C160" t="s">
-        <v>577</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4059,10 +4029,10 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C161" t="s">
-        <v>578</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4070,10 +4040,10 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C162" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4081,10 +4051,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C163" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4092,10 +4062,10 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="C164" t="s">
-        <v>580</v>
+        <v>470</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4103,10 +4073,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C165" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4114,10 +4084,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4125,10 +4095,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="C167" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4136,10 +4106,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4147,10 +4117,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C169" t="s">
-        <v>584</v>
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4158,10 +4128,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C170" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4169,10 +4139,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="C171" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4180,10 +4150,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="C172" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4191,10 +4161,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4202,10 +4172,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="C174" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4213,10 +4183,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C175" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4224,10 +4194,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C176" t="s">
-        <v>485</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4235,10 +4205,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="C177" t="s">
-        <v>588</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4246,10 +4216,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="C178" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4257,10 +4227,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C179" t="s">
-        <v>494</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4268,10 +4238,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C180" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4279,10 +4249,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="C181" t="s">
-        <v>496</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4290,10 +4260,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>316</v>
+        <v>395</v>
       </c>
       <c r="C182" t="s">
-        <v>591</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4301,10 +4271,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C183" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4312,10 +4282,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>307</v>
+        <v>395</v>
       </c>
       <c r="C184" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4323,10 +4293,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C185" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4334,10 +4304,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C186" t="s">
-        <v>497</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4345,10 +4315,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C187" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4356,10 +4326,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>417</v>
+        <v>306</v>
       </c>
       <c r="C188" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4367,10 +4337,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="C189" t="s">
-        <v>504</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4378,10 +4348,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="C190" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4389,10 +4359,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="C191" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4400,10 +4370,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C192" t="s">
-        <v>503</v>
+        <v>588</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4411,10 +4381,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C193" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4422,10 +4392,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="C194" t="s">
-        <v>484</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4433,10 +4403,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="C195" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4444,10 +4414,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C196" t="s">
-        <v>596</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4455,10 +4425,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C197" t="s">
-        <v>481</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4466,10 +4436,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
       <c r="C198" t="s">
-        <v>597</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4477,10 +4447,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="C199" t="s">
-        <v>598</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4488,10 +4458,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C200" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4499,10 +4469,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>425</v>
+        <v>306</v>
       </c>
       <c r="C201" t="s">
-        <v>599</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4510,10 +4480,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="C202" t="s">
-        <v>549</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4521,10 +4491,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="C203" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4532,10 +4502,10 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="C204" t="s">
-        <v>496</v>
+        <v>592</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4543,10 +4513,10 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="C205" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4554,10 +4524,10 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="C206" t="s">
-        <v>600</v>
+        <v>471</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4565,10 +4535,10 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="C207" t="s">
-        <v>601</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4576,10 +4546,10 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="C208" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4587,10 +4557,10 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C209" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4598,10 +4568,10 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>431</v>
       </c>
       <c r="C210" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4609,10 +4579,10 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>428</v>
+        <v>306</v>
       </c>
       <c r="C211" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4620,10 +4590,10 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C212" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4631,10 +4601,10 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C213" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4642,10 +4612,10 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C214" t="s">
-        <v>604</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4653,10 +4623,10 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C215" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4664,10 +4634,10 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>291</v>
+        <v>436</v>
       </c>
       <c r="C216" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4675,10 +4645,10 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="C217" t="s">
-        <v>587</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4686,10 +4656,10 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C218" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4697,10 +4667,10 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>433</v>
+        <v>306</v>
       </c>
       <c r="C219" t="s">
-        <v>485</v>
+        <v>597</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4708,10 +4678,10 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C220" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4719,10 +4689,10 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C221" t="s">
-        <v>481</v>
+        <v>599</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4730,10 +4700,10 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C222" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4741,10 +4711,10 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>437</v>
+        <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4752,10 +4722,10 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="C224" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4763,10 +4733,10 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="C225" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4774,10 +4744,10 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="C226" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4785,10 +4755,10 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
       <c r="C227" t="s">
-        <v>607</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4796,10 +4766,10 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C228" t="s">
-        <v>608</v>
+        <v>470</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4807,10 +4777,10 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>312</v>
+        <v>442</v>
       </c>
       <c r="C229" t="s">
-        <v>609</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4818,10 +4788,10 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C230" t="s">
-        <v>492</v>
+        <v>602</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4829,10 +4799,10 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>441</v>
+        <v>293</v>
       </c>
       <c r="C231" t="s">
-        <v>610</v>
+        <v>495</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4840,10 +4810,10 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="C232" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4851,10 +4821,10 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>443</v>
+        <v>350</v>
       </c>
       <c r="C233" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4862,10 +4832,10 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>444</v>
+        <v>346</v>
       </c>
       <c r="C234" t="s">
-        <v>613</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4873,10 +4843,10 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>290</v>
+        <v>444</v>
       </c>
       <c r="C235" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4884,10 +4854,10 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="C236" t="s">
-        <v>484</v>
+        <v>606</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4895,10 +4865,10 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C237" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4906,10 +4876,10 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="C238" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4917,10 +4887,10 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C239" t="s">
-        <v>615</v>
+        <v>536</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4928,10 +4898,10 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C240" t="s">
-        <v>616</v>
+        <v>498</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4939,10 +4909,10 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="C241" t="s">
-        <v>501</v>
+        <v>608</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4950,10 +4920,10 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>449</v>
+        <v>309</v>
       </c>
       <c r="C242" t="s">
-        <v>484</v>
+        <v>609</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4961,10 +4931,10 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C243" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4975,7 +4945,7 @@
         <v>450</v>
       </c>
       <c r="C244" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4986,7 +4956,7 @@
         <v>451</v>
       </c>
       <c r="C245" t="s">
-        <v>486</v>
+        <v>611</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4997,7 +4967,7 @@
         <v>452</v>
       </c>
       <c r="C246" t="s">
-        <v>617</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5005,10 +4975,10 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="C247" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -5019,7 +4989,7 @@
         <v>453</v>
       </c>
       <c r="C248" t="s">
-        <v>618</v>
+        <v>472</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5027,10 +4997,10 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>454</v>
+        <v>293</v>
       </c>
       <c r="C249" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5038,10 +5008,10 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>455</v>
+        <v>307</v>
       </c>
       <c r="C250" t="s">
-        <v>619</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5049,10 +5019,10 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>456</v>
+        <v>349</v>
       </c>
       <c r="C251" t="s">
-        <v>620</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5060,10 +5030,10 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C252" t="s">
-        <v>501</v>
+        <v>613</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5071,10 +5041,10 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="C253" t="s">
-        <v>484</v>
+        <v>614</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5082,10 +5052,10 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="C254" t="s">
-        <v>621</v>
+        <v>485</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5093,10 +5063,10 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
       <c r="C255" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5104,10 +5074,10 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C256" t="s">
-        <v>622</v>
+        <v>498</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5115,10 +5085,10 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C257" t="s">
-        <v>623</v>
+        <v>472</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5126,10 +5096,10 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>317</v>
+        <v>456</v>
       </c>
       <c r="C258" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5137,10 +5107,10 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>462</v>
+        <v>315</v>
       </c>
       <c r="C259" t="s">
-        <v>485</v>
+        <v>616</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5148,10 +5118,10 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C260" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5159,10 +5129,10 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>291</v>
+        <v>458</v>
       </c>
       <c r="C261" t="s">
-        <v>626</v>
+        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5170,10 +5140,10 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="C262" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5181,10 +5151,10 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="C263" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5192,10 +5162,10 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>466</v>
+        <v>325</v>
       </c>
       <c r="C264" t="s">
-        <v>628</v>
+        <v>498</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5203,10 +5173,10 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C265" t="s">
-        <v>486</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5214,10 +5184,10 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>468</v>
+        <v>302</v>
       </c>
       <c r="C266" t="s">
-        <v>629</v>
+        <v>470</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5225,10 +5195,10 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C267" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5236,10 +5206,10 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>470</v>
+        <v>395</v>
       </c>
       <c r="C268" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5247,10 +5217,10 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>471</v>
+        <v>307</v>
       </c>
       <c r="C269" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5258,10 +5228,10 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C270" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5269,10 +5239,10 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="C271" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5280,10 +5250,10 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>472</v>
+        <v>307</v>
       </c>
       <c r="C272" t="s">
-        <v>497</v>
+        <v>619</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5291,10 +5261,10 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>360</v>
+        <v>462</v>
       </c>
       <c r="C273" t="s">
-        <v>501</v>
+        <v>620</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5302,10 +5272,10 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C274" t="s">
-        <v>632</v>
+        <v>496</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5313,10 +5283,10 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C275" t="s">
-        <v>497</v>
+        <v>621</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5324,10 +5294,10 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>291</v>
+        <v>454</v>
       </c>
       <c r="C276" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5335,10 +5305,10 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>312</v>
+        <v>464</v>
       </c>
       <c r="C277" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5346,10 +5316,10 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C278" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5357,10 +5327,10 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="C279" t="s">
-        <v>567</v>
+        <v>485</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5368,10 +5338,10 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C280" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5379,10 +5349,10 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>436</v>
+        <v>346</v>
       </c>
       <c r="C281" t="s">
-        <v>485</v>
+        <v>625</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5390,10 +5360,10 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>296</v>
+        <v>428</v>
       </c>
       <c r="C282" t="s">
-        <v>496</v>
+        <v>617</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5401,10 +5371,10 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="C283" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5412,10 +5382,10 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C284" t="s">
-        <v>484</v>
+        <v>626</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5423,10 +5393,10 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>476</v>
+        <v>306</v>
       </c>
       <c r="C285" t="s">
-        <v>636</v>
+        <v>480</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5434,10 +5404,10 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>330</v>
+        <v>466</v>
       </c>
       <c r="C286" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5445,10 +5415,10 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="C287" t="s">
-        <v>637</v>
+        <v>497</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5456,10 +5426,10 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>318</v>
+        <v>468</v>
       </c>
       <c r="C288" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
